--- a/nba_players/noisy_datasets/players_stats_0.35__test_.xlsx
+++ b/nba_players/noisy_datasets/players_stats_0.35__test_.xlsx
@@ -79,253 +79,253 @@
     <t>Jeff Ayres</t>
   </si>
   <si>
-    <t>Phil Pressey</t>
-  </si>
-  <si>
-    <t>Lorenzo Brown</t>
-  </si>
-  <si>
-    <t>Tony Wroten</t>
-  </si>
-  <si>
-    <t>Ryan Hollins</t>
-  </si>
-  <si>
-    <t>Joe Johnson</t>
-  </si>
-  <si>
-    <t>Kyle Casey</t>
-  </si>
-  <si>
-    <t>Greg Whittington</t>
-  </si>
-  <si>
-    <t>Terran Petteway</t>
-  </si>
-  <si>
-    <t>Treveon Graham</t>
-  </si>
-  <si>
-    <t>James Ennis</t>
-  </si>
-  <si>
-    <t>Tyler Johnson</t>
-  </si>
-  <si>
-    <t>Grant Jerrett</t>
-  </si>
-  <si>
-    <t>Jimmer Fredette</t>
-  </si>
-  <si>
-    <t>Robert Sacre</t>
-  </si>
-  <si>
-    <t>Chris Johnson</t>
-  </si>
-  <si>
-    <t>Joey Dorsey</t>
-  </si>
-  <si>
-    <t>Montrezl Harrell</t>
-  </si>
-  <si>
-    <t>Jeremy Evans</t>
+    <t>Keith Appling</t>
+  </si>
+  <si>
+    <t>Marcus Thornton</t>
+  </si>
+  <si>
+    <t>Kevin Martin</t>
+  </si>
+  <si>
+    <t>Nazr Mohammed</t>
+  </si>
+  <si>
+    <t>Andre Miller</t>
+  </si>
+  <si>
+    <t>Aaron Harrison</t>
+  </si>
+  <si>
+    <t>Cristiano Felicio</t>
+  </si>
+  <si>
+    <t>Jarrid Famous</t>
+  </si>
+  <si>
+    <t>Darrun Hilliard</t>
+  </si>
+  <si>
+    <t>Langston Galloway</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Troy Daniels</t>
+  </si>
+  <si>
+    <t>John Lucas III</t>
+  </si>
+  <si>
+    <t>Tyler Hansbrough</t>
+  </si>
+  <si>
+    <t>John Jenkins</t>
+  </si>
+  <si>
+    <t>James Anderson</t>
+  </si>
+  <si>
+    <t>Walter Tavares</t>
+  </si>
+  <si>
+    <t>Glenn Robinson III</t>
   </si>
   <si>
     <t>Garrett Temple</t>
   </si>
   <si>
-    <t>CJ Wilcox</t>
-  </si>
-  <si>
-    <t>Toney Douglas</t>
-  </si>
-  <si>
-    <t>Jarell Martin</t>
-  </si>
-  <si>
-    <t>Reggie Williams</t>
+    <t>Archie Goodwin</t>
+  </si>
+  <si>
+    <t>Larry Nance Jr.</t>
+  </si>
+  <si>
+    <t>Reggie Bullock</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
   </si>
   <si>
     <t>Shabazz Napier</t>
   </si>
   <si>
-    <t>Andrea Bargnani</t>
-  </si>
-  <si>
-    <t>Caron Butler</t>
-  </si>
-  <si>
-    <t>Gorgui Dieng</t>
-  </si>
-  <si>
-    <t>Gary Harris</t>
+    <t>Shane Larkin</t>
+  </si>
+  <si>
+    <t>Wayne Ellington</t>
   </si>
   <si>
     <t>Lance Thomas</t>
   </si>
   <si>
-    <t>Adreian Payne</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
+    <t>Jerian Grant</t>
+  </si>
+  <si>
+    <t>Jusuf Nurkic</t>
+  </si>
+  <si>
+    <t>Dennis Schroder</t>
   </si>
   <si>
     <t>David Lee</t>
   </si>
   <si>
-    <t>TJ Warren</t>
-  </si>
-  <si>
-    <t>Gary Neal</t>
-  </si>
-  <si>
-    <t>Danny Granger</t>
-  </si>
-  <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
-    <t>Donatas Motiejunas</t>
-  </si>
-  <si>
-    <t>Leandro Barbosa</t>
-  </si>
-  <si>
-    <t>Terrence Jones</t>
+    <t>Joe Ingles</t>
+  </si>
+  <si>
+    <t>Steve Blake</t>
+  </si>
+  <si>
+    <t>Miles Plumlee</t>
+  </si>
+  <si>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Aaron Brooks</t>
+  </si>
+  <si>
+    <t>Michael Carter-Williams</t>
+  </si>
+  <si>
+    <t>Shelvin Mack</t>
   </si>
   <si>
     <t>Tyler Zeller</t>
   </si>
   <si>
-    <t>Omri Casspi</t>
-  </si>
-  <si>
-    <t>Furkan Aldemir</t>
+    <t>Kevin Seraphin</t>
   </si>
   <si>
     <t>Kirk Hinrich</t>
   </si>
   <si>
+    <t>Maurice Harkless</t>
+  </si>
+  <si>
     <t>Meyers Leonard</t>
   </si>
   <si>
-    <t>Emmanuel Mudiay</t>
-  </si>
-  <si>
-    <t>Paul Pierce</t>
-  </si>
-  <si>
-    <t>Bojan Bogdanovic</t>
-  </si>
-  <si>
-    <t>Matt Barnes</t>
-  </si>
-  <si>
-    <t>Evan Turner</t>
-  </si>
-  <si>
-    <t>Alex Len</t>
+    <t>Jeremy Lamb</t>
+  </si>
+  <si>
+    <t>Ben McLemore</t>
+  </si>
+  <si>
+    <t>Drew Gooden</t>
+  </si>
+  <si>
+    <t>Mario Hezonja</t>
+  </si>
+  <si>
+    <t>Terrence Ross</t>
   </si>
   <si>
     <t>Lavoy Allen</t>
   </si>
   <si>
-    <t>Damian Lillard</t>
+    <t>Jordan Hill</t>
   </si>
   <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Jared Dudley</t>
-  </si>
-  <si>
-    <t>C.J. Watson</t>
-  </si>
-  <si>
-    <t>Chris Andersen</t>
+    <t>Jameer Nelson</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
+    <t>Alexis Ajinca</t>
+  </si>
+  <si>
+    <t>Jonas Jerebko</t>
+  </si>
+  <si>
+    <t>Dion Waiters</t>
+  </si>
+  <si>
+    <t>Brandan Wright</t>
   </si>
   <si>
     <t>Josh McRoberts</t>
   </si>
   <si>
-    <t>Victor Oladipo</t>
-  </si>
-  <si>
-    <t>Andrew Wiggins</t>
+    <t>Martell Webster</t>
   </si>
   <si>
     <t>Gerald Henderson</t>
   </si>
   <si>
-    <t>Jodie Meeks</t>
-  </si>
-  <si>
-    <t>Jae Crowder</t>
-  </si>
-  <si>
-    <t>Louis Williams</t>
-  </si>
-  <si>
-    <t>Jose Calderon</t>
-  </si>
-  <si>
-    <t>Ersan Ilyasova</t>
-  </si>
-  <si>
-    <t>Corey Brewer</t>
-  </si>
-  <si>
-    <t>Kevin Garnett</t>
-  </si>
-  <si>
-    <t>Lance Stephenson</t>
-  </si>
-  <si>
-    <t>Danny Green</t>
+    <t>Carl Landry</t>
+  </si>
+  <si>
+    <t>Patrick Beverley</t>
+  </si>
+  <si>
+    <t>Rodney Stuckey</t>
+  </si>
+  <si>
+    <t>Marvin Williams</t>
+  </si>
+  <si>
+    <t>Markieff Morris</t>
+  </si>
+  <si>
+    <t>Trevor Ariza</t>
+  </si>
+  <si>
+    <t>Omer Asik</t>
+  </si>
+  <si>
+    <t>Rajon Rondo</t>
+  </si>
+  <si>
+    <t>Tiago Splitter</t>
   </si>
   <si>
     <t>Zach Randolph</t>
   </si>
   <si>
-    <t>Nikola Vucevic</t>
-  </si>
-  <si>
-    <t>Andre Iguodala</t>
-  </si>
-  <si>
-    <t>Robin Lopez</t>
-  </si>
-  <si>
-    <t>Nicolas Batum</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
+    <t>Kemba Walker</t>
+  </si>
+  <si>
+    <t>Amir Johnson</t>
+  </si>
+  <si>
+    <t>Joakim Noah</t>
+  </si>
+  <si>
+    <t>Serge Ibaka</t>
   </si>
   <si>
     <t>Brandon Knight</t>
   </si>
   <si>
-    <t>Goran Dragic</t>
-  </si>
-  <si>
-    <t>Roy Hibbert</t>
+    <t>Eric Bledsoe</t>
+  </si>
+  <si>
+    <t>Gordon Hayward</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
   </si>
   <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
-    <t>Enes Kanter</t>
-  </si>
-  <si>
-    <t>Dwight Howard</t>
+    <t>Blake Griffin</t>
   </si>
   <si>
     <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Derrick Rose</t>
   </si>
 </sst>
 </file>
@@ -818,217 +818,217 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>12.3</v>
+        <v>5.4</v>
       </c>
       <c r="E3">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="F3">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.6</v>
+      </c>
+      <c r="I3">
+        <v>0.4</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0.25</v>
+      </c>
+      <c r="L3">
+        <v>0.4</v>
+      </c>
+      <c r="M3">
+        <v>0.4</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>0.2</v>
       </c>
-      <c r="H3">
-        <v>0.8</v>
-      </c>
-      <c r="I3">
-        <v>1.1</v>
-      </c>
-      <c r="J3">
-        <v>2.6</v>
-      </c>
-      <c r="K3">
-        <v>0.41</v>
-      </c>
-      <c r="L3">
+      <c r="P3">
+        <v>0.2</v>
+      </c>
+      <c r="Q3">
+        <v>0.2</v>
+      </c>
+      <c r="R3">
+        <v>0.2</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>0.6</v>
       </c>
-      <c r="M3">
-        <v>1.1</v>
-      </c>
-      <c r="N3">
-        <v>0.1</v>
-      </c>
-      <c r="O3">
-        <v>1.2</v>
-      </c>
-      <c r="P3">
-        <v>1.3</v>
-      </c>
-      <c r="Q3">
-        <v>3.3</v>
-      </c>
-      <c r="R3">
-        <v>0.8</v>
-      </c>
-      <c r="S3">
-        <v>0.2</v>
-      </c>
-      <c r="T3">
-        <v>1.4</v>
-      </c>
       <c r="U3">
-        <v>55722</v>
+        <v>61776</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>7.6</v>
+        <v>18.2</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F4">
-        <v>3.1</v>
+        <v>8.9</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="I4">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="K4">
-        <v>0.34</v>
+        <v>0.482</v>
       </c>
       <c r="L4">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="M4">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O4">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="P4">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q4">
         <v>1.4</v>
       </c>
       <c r="R4">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="S4">
         <v>0.1</v>
       </c>
       <c r="T4">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="U4">
-        <v>111444</v>
+        <v>200600</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>19.9</v>
       </c>
       <c r="E5">
         <v>2.8</v>
       </c>
       <c r="F5">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="G5">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H5">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="I5">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="K5">
-        <v>0.362</v>
+        <v>0.431</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M5">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="N5">
         <v>0.3</v>
       </c>
       <c r="O5">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="R5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T5">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>167406</v>
+        <v>200600</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>12.4</v>
+        <v>3.8</v>
       </c>
       <c r="E6">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="F6">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1037,170 +1037,170 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="J6">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="L6">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="M6">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="O6">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="P6">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="Q6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0.6</v>
       </c>
       <c r="U6">
-        <v>239605</v>
+        <v>222888</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>33.4</v>
+        <v>11.8</v>
       </c>
       <c r="E7">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="F7">
-        <v>10.6</v>
+        <v>2.7</v>
       </c>
       <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
         <v>1.5</v>
       </c>
-      <c r="H7">
-        <v>3.9</v>
-      </c>
-      <c r="I7">
-        <v>3.2</v>
-      </c>
       <c r="J7">
-        <v>6.7</v>
+        <v>2.5</v>
       </c>
       <c r="K7">
-        <v>0.509</v>
+        <v>0.5660000000000001</v>
       </c>
       <c r="L7">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="M7">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="N7">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="Q7">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="R7">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="U7">
-        <v>261894</v>
+        <v>250750</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.342</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U8">
         <v>525093</v>
@@ -1208,64 +1208,64 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.556</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U9">
         <v>525093</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -1338,129 +1338,129 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.469</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U11">
-        <v>525093</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>24.8</v>
       </c>
       <c r="E12">
+        <v>2.8</v>
+      </c>
+      <c r="F12">
+        <v>7.2</v>
+      </c>
+      <c r="G12">
+        <v>0.9</v>
+      </c>
+      <c r="H12">
+        <v>2.7</v>
+      </c>
+      <c r="I12">
+        <v>1.9</v>
+      </c>
+      <c r="J12">
+        <v>4.4</v>
+      </c>
+      <c r="K12">
+        <v>0.458</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.4</v>
+      </c>
+      <c r="N12">
+        <v>0.5</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>3.5</v>
+      </c>
+      <c r="Q12">
         <v>2.5</v>
       </c>
-      <c r="F12">
-        <v>5.1</v>
-      </c>
-      <c r="G12">
-        <v>1.2</v>
-      </c>
-      <c r="H12">
-        <v>2.6</v>
-      </c>
-      <c r="I12">
-        <v>1.3</v>
-      </c>
-      <c r="J12">
-        <v>2.5</v>
-      </c>
-      <c r="K12">
-        <v>0.593</v>
-      </c>
-      <c r="L12">
-        <v>1.1</v>
-      </c>
-      <c r="M12">
-        <v>1.5</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1.9</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
       <c r="R12">
+        <v>0.9</v>
+      </c>
+      <c r="S12">
+        <v>0.3</v>
+      </c>
+      <c r="T12">
         <v>0.7</v>
-      </c>
-      <c r="S12">
-        <v>0.2</v>
-      </c>
-      <c r="T12">
-        <v>0.9</v>
       </c>
       <c r="U12">
         <v>845059</v>
@@ -1468,64 +1468,64 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>13.3</v>
       </c>
       <c r="E13">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="F13">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
         <v>0.8</v>
       </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
       <c r="I13">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="J13">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="K13">
-        <v>0.541</v>
+        <v>0.361</v>
       </c>
       <c r="L13">
+        <v>1.6</v>
+      </c>
+      <c r="M13">
+        <v>2.8</v>
+      </c>
+      <c r="N13">
+        <v>0.3</v>
+      </c>
+      <c r="O13">
+        <v>1.1</v>
+      </c>
+      <c r="P13">
         <v>1.4</v>
       </c>
-      <c r="M13">
+      <c r="Q13">
         <v>1.8</v>
       </c>
-      <c r="N13">
-        <v>0.8</v>
-      </c>
-      <c r="O13">
-        <v>2.3</v>
-      </c>
-      <c r="P13">
-        <v>3</v>
-      </c>
-      <c r="Q13">
-        <v>2.2</v>
-      </c>
       <c r="R13">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="S13">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="U13">
         <v>845059</v>
@@ -1533,64 +1533,64 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.634</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U14">
         <v>947276</v>
@@ -1598,43 +1598,43 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1646,119 +1646,119 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>874837</v>
+        <v>947276</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>12.8</v>
+        <v>7.8</v>
       </c>
       <c r="E16">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I16">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K16">
-        <v>0.413</v>
+        <v>0.465</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M16">
         <v>1.5</v>
       </c>
       <c r="N16">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="O16">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="P16">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="R16">
+        <v>0.3</v>
+      </c>
+      <c r="S16">
         <v>0.2</v>
       </c>
-      <c r="S16">
-        <v>0.4</v>
-      </c>
       <c r="T16">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U16">
-        <v>981348</v>
+        <v>947276</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="F17">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="G17">
         <v>0.4</v>
       </c>
       <c r="H17">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="I17">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="J17">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="K17">
-        <v>0.441</v>
+        <v>0.494</v>
       </c>
       <c r="L17">
         <v>0.5</v>
@@ -1767,22 +1767,22 @@
         <v>0.6</v>
       </c>
       <c r="N17">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O17">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="P17">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Q17">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="R17">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="S17">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>0.6</v>
@@ -1793,64 +1793,64 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.441</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U18">
         <v>1015421</v>
@@ -1858,22 +1858,22 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>9.699999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="E19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1882,40 +1882,40 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="K19">
-        <v>0.644</v>
+        <v>0.579</v>
       </c>
       <c r="L19">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="M19">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="N19">
         <v>0.6</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="P19">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="Q19">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R19">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S19">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T19">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="U19">
         <v>1000000</v>
@@ -1923,67 +1923,67 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.583</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1100602</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2053,217 +2053,217 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="1">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U22">
-        <v>1159680</v>
+        <v>1160160</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="1">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>20.7</v>
+        <v>20.1</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F23">
-        <v>7.3</v>
+        <v>4.8</v>
       </c>
       <c r="G23">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>2.5</v>
+      </c>
+      <c r="J23">
+        <v>4.6</v>
+      </c>
+      <c r="K23">
+        <v>0.528</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.7</v>
+      </c>
+      <c r="N23">
+        <v>1.6</v>
+      </c>
+      <c r="O23">
         <v>3.3</v>
       </c>
-      <c r="I23">
-        <v>1.7</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23">
-        <v>0.502</v>
-      </c>
-      <c r="L23">
-        <v>1.4</v>
-      </c>
-      <c r="M23">
-        <v>1.6</v>
-      </c>
-      <c r="N23">
+      <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <v>0.7</v>
+      </c>
+      <c r="R23">
+        <v>0.9</v>
+      </c>
+      <c r="S23">
         <v>0.4</v>
       </c>
-      <c r="O23">
-        <v>1.9</v>
-      </c>
-      <c r="P23">
-        <v>2.3</v>
-      </c>
-      <c r="Q23">
-        <v>2.6</v>
-      </c>
-      <c r="R23">
-        <v>1.1</v>
-      </c>
-      <c r="S23">
-        <v>0.1</v>
-      </c>
       <c r="T23">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U23">
-        <v>1164858</v>
+        <v>1155600</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="1">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>14.1</v>
+        <v>11.6</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="F24">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H24">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="J24">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="K24">
-        <v>0.466</v>
+        <v>0.551</v>
       </c>
       <c r="L24">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="M24">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="N24">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="O24">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="P24">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q24">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="R24">
         <v>0.3</v>
       </c>
       <c r="S24">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="T24">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="U24">
-        <v>1230840</v>
+        <v>1252440</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>19.1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2272,563 +2272,563 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5820000000000001</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U25">
-        <v>1185784</v>
+        <v>1242720</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>10.9</v>
+        <v>21.7</v>
       </c>
       <c r="E26">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="F26">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="G26">
+        <v>0.4</v>
+      </c>
+      <c r="H26">
+        <v>1.1</v>
+      </c>
+      <c r="I26">
+        <v>3.5</v>
+      </c>
+      <c r="J26">
+        <v>6.5</v>
+      </c>
+      <c r="K26">
+        <v>0.535</v>
+      </c>
+      <c r="L26">
+        <v>1.9</v>
+      </c>
+      <c r="M26">
+        <v>2.4</v>
+      </c>
+      <c r="N26">
+        <v>2.3</v>
+      </c>
+      <c r="O26">
+        <v>4.7</v>
+      </c>
+      <c r="P26">
+        <v>7</v>
+      </c>
+      <c r="Q26">
+        <v>2.4</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
         <v>0.6</v>
       </c>
-      <c r="H26">
-        <v>1.9</v>
-      </c>
-      <c r="I26">
-        <v>0.6</v>
-      </c>
-      <c r="J26">
-        <v>1.8</v>
-      </c>
-      <c r="K26">
-        <v>0.423</v>
-      </c>
-      <c r="L26">
-        <v>0.6</v>
-      </c>
-      <c r="M26">
-        <v>0.8</v>
-      </c>
-      <c r="N26">
-        <v>0.2</v>
-      </c>
-      <c r="O26">
-        <v>0.8</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>1.8</v>
-      </c>
-      <c r="R26">
-        <v>0.4</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
       <c r="T26">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="U26">
-        <v>1294440</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>13.8</v>
+        <v>10.9</v>
       </c>
       <c r="E27">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="F27">
-        <v>6.1</v>
+        <v>3.7</v>
       </c>
       <c r="G27">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H27">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="I27">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="J27">
-        <v>5.7</v>
+        <v>1.8</v>
       </c>
       <c r="K27">
-        <v>0.461</v>
+        <v>0.423</v>
       </c>
       <c r="L27">
+        <v>0.6</v>
+      </c>
+      <c r="M27">
+        <v>0.8</v>
+      </c>
+      <c r="N27">
+        <v>0.2</v>
+      </c>
+      <c r="O27">
+        <v>0.8</v>
+      </c>
+      <c r="P27">
         <v>1</v>
       </c>
-      <c r="M27">
-        <v>1.2</v>
-      </c>
-      <c r="N27">
-        <v>0.6</v>
-      </c>
-      <c r="O27">
-        <v>1.5</v>
-      </c>
-      <c r="P27">
-        <v>2.1</v>
-      </c>
       <c r="Q27">
+        <v>1.8</v>
+      </c>
+      <c r="R27">
         <v>0.4</v>
       </c>
-      <c r="R27">
-        <v>0.1</v>
-      </c>
       <c r="S27">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="U27">
-        <v>1362897</v>
+        <v>1294440</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>10.4</v>
+        <v>22.4</v>
       </c>
       <c r="E28">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="F28">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="G28">
+        <v>0.5</v>
+      </c>
+      <c r="H28">
+        <v>1.4</v>
+      </c>
+      <c r="I28">
+        <v>2.3</v>
+      </c>
+      <c r="J28">
+        <v>5.1</v>
+      </c>
+      <c r="K28">
+        <v>0.481</v>
+      </c>
+      <c r="L28">
+        <v>1.1</v>
+      </c>
+      <c r="M28">
+        <v>1.4</v>
+      </c>
+      <c r="N28">
+        <v>0.4</v>
+      </c>
+      <c r="O28">
+        <v>1.9</v>
+      </c>
+      <c r="P28">
+        <v>2.3</v>
+      </c>
+      <c r="Q28">
+        <v>4.4</v>
+      </c>
+      <c r="R28">
+        <v>1.2</v>
+      </c>
+      <c r="S28">
         <v>0.2</v>
       </c>
-      <c r="H28">
-        <v>1.1</v>
-      </c>
-      <c r="I28">
-        <v>1.3</v>
-      </c>
-      <c r="J28">
-        <v>2.4</v>
-      </c>
-      <c r="K28">
-        <v>0.449</v>
-      </c>
-      <c r="L28">
-        <v>0.6</v>
-      </c>
-      <c r="M28">
-        <v>0.7</v>
-      </c>
-      <c r="N28">
-        <v>0.3</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>1.3</v>
-      </c>
-      <c r="Q28">
-        <v>0.6</v>
-      </c>
-      <c r="R28">
-        <v>0.5</v>
-      </c>
-      <c r="S28">
-        <v>0.1</v>
-      </c>
       <c r="T28">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="U28">
-        <v>1449187</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>27.1</v>
+        <v>21.3</v>
       </c>
       <c r="E29">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="F29">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="G29">
+        <v>1.3</v>
+      </c>
+      <c r="H29">
+        <v>3.5</v>
+      </c>
+      <c r="I29">
+        <v>1.6</v>
+      </c>
+      <c r="J29">
+        <v>3.9</v>
+      </c>
+      <c r="K29">
+        <v>0.474</v>
+      </c>
+      <c r="L29">
+        <v>0.7</v>
+      </c>
+      <c r="M29">
+        <v>0.8</v>
+      </c>
+      <c r="N29">
+        <v>0.3</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>2.3</v>
+      </c>
+      <c r="Q29">
+        <v>1.1</v>
+      </c>
+      <c r="R29">
+        <v>0.6</v>
+      </c>
+      <c r="S29">
         <v>0.1</v>
       </c>
-      <c r="H29">
-        <v>0.2</v>
-      </c>
-      <c r="I29">
-        <v>3.7</v>
-      </c>
-      <c r="J29">
-        <v>6.8</v>
-      </c>
-      <c r="K29">
-        <v>0.537</v>
-      </c>
-      <c r="L29">
-        <v>2.5</v>
-      </c>
-      <c r="M29">
-        <v>3</v>
-      </c>
-      <c r="N29">
-        <v>1.9</v>
-      </c>
-      <c r="O29">
-        <v>5.2</v>
-      </c>
-      <c r="P29">
-        <v>7.1</v>
-      </c>
-      <c r="Q29">
-        <v>1.7</v>
-      </c>
-      <c r="R29">
-        <v>1.1</v>
-      </c>
-      <c r="S29">
-        <v>1.2</v>
-      </c>
       <c r="T29">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="U29">
-        <v>1474440</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>32.1</v>
+        <v>22.3</v>
       </c>
       <c r="E30">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="F30">
-        <v>10.1</v>
+        <v>6.5</v>
       </c>
       <c r="G30">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H30">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="I30">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="J30">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="K30">
-        <v>0.5379999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="M30">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="O30">
+        <v>1.6</v>
+      </c>
+      <c r="P30">
         <v>2.2</v>
       </c>
-      <c r="P30">
-        <v>2.9</v>
-      </c>
       <c r="Q30">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="R30">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="S30">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T30">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>1584480</v>
+        <v>1636842</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>22.3</v>
+        <v>16.6</v>
       </c>
       <c r="E31">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="G31">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H31">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="I31">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="J31">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.422</v>
       </c>
       <c r="L31">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="N31">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O31">
         <v>1.6</v>
       </c>
       <c r="P31">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="Q31">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="R31">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="S31">
         <v>0.1</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="U31">
-        <v>1636842</v>
+        <v>1572360</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="1">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>9.300000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="F32">
-        <v>2.8</v>
+        <v>7.6</v>
       </c>
       <c r="G32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="I32">
+        <v>3.2</v>
+      </c>
+      <c r="J32">
+        <v>7.5</v>
+      </c>
+      <c r="K32">
+        <v>0.417</v>
+      </c>
+      <c r="L32">
+        <v>1.9</v>
+      </c>
+      <c r="M32">
+        <v>3.1</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>3.4</v>
+      </c>
+      <c r="P32">
+        <v>5.5</v>
+      </c>
+      <c r="Q32">
+        <v>1.3</v>
+      </c>
+      <c r="R32">
         <v>0.8</v>
       </c>
-      <c r="J32">
-        <v>2.2</v>
-      </c>
-      <c r="K32">
-        <v>0.397</v>
-      </c>
-      <c r="L32">
-        <v>0.3</v>
-      </c>
-      <c r="M32">
-        <v>0.5</v>
-      </c>
-      <c r="N32">
-        <v>0.4</v>
-      </c>
-      <c r="O32">
-        <v>1.8</v>
-      </c>
-      <c r="P32">
-        <v>2.1</v>
-      </c>
-      <c r="Q32">
-        <v>0.6</v>
-      </c>
-      <c r="R32">
-        <v>0.3</v>
-      </c>
       <c r="S32">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="T32">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="U32">
-        <v>1938840</v>
+        <v>1842000</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="1">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s">
         <v>51</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>20.3</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>0.471</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="U33">
-        <v>1920240</v>
+        <v>1763400</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2898,152 +2898,152 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="1">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U35">
-        <v>2041080</v>
+        <v>2050000</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="1">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
       </c>
       <c r="C36">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>20.2</v>
+        <v>17</v>
       </c>
       <c r="E36">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="F36">
-        <v>8.1</v>
+        <v>4.1</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H36">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I36">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="J36">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="K36">
-        <v>0.528</v>
+        <v>0.496</v>
       </c>
       <c r="L36">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="M36">
+        <v>0.3</v>
+      </c>
+      <c r="N36">
+        <v>0.2</v>
+      </c>
+      <c r="O36">
         <v>1.4</v>
       </c>
-      <c r="N36">
-        <v>0.3</v>
-      </c>
-      <c r="O36">
-        <v>1.8</v>
-      </c>
       <c r="P36">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q36">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="R36">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T36">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="U36">
-        <v>2139000</v>
+        <v>2170465</v>
       </c>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="1">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3052,164 +3052,164 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>0.601</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="U37">
-        <v>2170465</v>
+        <v>2109294</v>
       </c>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="1">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>17.3</v>
+        <v>22.8</v>
       </c>
       <c r="E38">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="F38">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G38">
+        <v>0.1</v>
+      </c>
+      <c r="H38">
+        <v>0.2</v>
+      </c>
+      <c r="I38">
+        <v>4.4</v>
+      </c>
+      <c r="J38">
+        <v>8.6</v>
+      </c>
+      <c r="K38">
+        <v>0.501</v>
+      </c>
+      <c r="L38">
+        <v>1.5</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>1.1</v>
+      </c>
+      <c r="O38">
+        <v>4.4</v>
+      </c>
+      <c r="P38">
         <v>5.5</v>
-      </c>
-      <c r="G38">
-        <v>0.6</v>
-      </c>
-      <c r="H38">
-        <v>1.6</v>
-      </c>
-      <c r="I38">
-        <v>1.8</v>
-      </c>
-      <c r="J38">
-        <v>3.9</v>
-      </c>
-      <c r="K38">
-        <v>0.494</v>
-      </c>
-      <c r="L38">
-        <v>0.7</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>0.7</v>
-      </c>
-      <c r="O38">
-        <v>3</v>
-      </c>
-      <c r="P38">
-        <v>3.7</v>
       </c>
       <c r="Q38">
         <v>0.7</v>
       </c>
       <c r="R38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="S38">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="T38">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="U38">
-        <v>2239800</v>
+        <v>2357760</v>
       </c>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>14.8</v>
+        <v>16.1</v>
       </c>
       <c r="E39">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="F39">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2.7</v>
+      </c>
+      <c r="I39">
+        <v>1.8</v>
+      </c>
+      <c r="J39">
+        <v>4.1</v>
+      </c>
+      <c r="K39">
+        <v>0.471</v>
+      </c>
+      <c r="L39">
+        <v>0.7</v>
+      </c>
+      <c r="M39">
+        <v>0.9</v>
+      </c>
+      <c r="N39">
+        <v>0.3</v>
+      </c>
+      <c r="O39">
+        <v>1.2</v>
+      </c>
+      <c r="P39">
+        <v>1.5</v>
+      </c>
+      <c r="Q39">
+        <v>2.6</v>
+      </c>
+      <c r="R39">
         <v>0.4</v>
-      </c>
-      <c r="H39">
-        <v>1.5</v>
-      </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
-      <c r="J39">
-        <v>4</v>
-      </c>
-      <c r="K39">
-        <v>0.478</v>
-      </c>
-      <c r="L39">
-        <v>0.9</v>
-      </c>
-      <c r="M39">
-        <v>1.4</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>1.9</v>
-      </c>
-      <c r="P39">
-        <v>2.9</v>
-      </c>
-      <c r="Q39">
-        <v>1.1</v>
-      </c>
-      <c r="R39">
-        <v>0.5</v>
       </c>
       <c r="S39">
         <v>0.1</v>
@@ -3218,137 +3218,137 @@
         <v>1.2</v>
       </c>
       <c r="U39">
-        <v>2288205</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B40" t="s">
         <v>58</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>15.9</v>
+        <v>30.5</v>
       </c>
       <c r="E40">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="F40">
-        <v>5.4</v>
+        <v>10.3</v>
       </c>
       <c r="G40">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H40">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="J40">
-        <v>3.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K40">
-        <v>0.515</v>
+        <v>0.466</v>
       </c>
       <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>0.9</v>
+      </c>
+      <c r="O40">
+        <v>4.2</v>
+      </c>
+      <c r="P40">
+        <v>5.1</v>
+      </c>
+      <c r="Q40">
+        <v>5.2</v>
+      </c>
+      <c r="R40">
+        <v>1.5</v>
+      </c>
+      <c r="S40">
         <v>0.8</v>
       </c>
-      <c r="M40">
-        <v>0.9</v>
-      </c>
-      <c r="N40">
-        <v>0.4</v>
-      </c>
-      <c r="O40">
-        <v>1.3</v>
-      </c>
-      <c r="P40">
-        <v>1.7</v>
-      </c>
-      <c r="Q40">
-        <v>1.2</v>
-      </c>
-      <c r="R40">
-        <v>0.6</v>
-      </c>
-      <c r="S40">
-        <v>0.1</v>
-      </c>
       <c r="T40">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="U40">
-        <v>2500000</v>
+        <v>2399040</v>
       </c>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>20.9</v>
+        <v>20.3</v>
       </c>
       <c r="E41">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="F41">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="G41">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H41">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="I41">
         <v>2.8</v>
       </c>
       <c r="J41">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="K41">
         <v>0.486</v>
       </c>
       <c r="L41">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="M41">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="N41">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="P41">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q41">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="R41">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="S41">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="T41">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="U41">
-        <v>2489530</v>
+        <v>2433333</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3418,197 +3418,197 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="1">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B43" t="s">
         <v>61</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>27.2</v>
+        <v>11</v>
       </c>
       <c r="E43">
+        <v>1.8</v>
+      </c>
+      <c r="F43">
         <v>4.3</v>
       </c>
-      <c r="F43">
-        <v>9</v>
-      </c>
       <c r="G43">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="K43">
-        <v>0.5710000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="L43">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="M43">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="N43">
+        <v>0.6</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>2.6</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>0.2</v>
+      </c>
+      <c r="S43">
         <v>0.8</v>
       </c>
-      <c r="O43">
-        <v>5.1</v>
-      </c>
-      <c r="P43">
-        <v>5.9</v>
-      </c>
-      <c r="Q43">
-        <v>1.4</v>
-      </c>
-      <c r="R43">
-        <v>0.8</v>
-      </c>
-      <c r="S43">
-        <v>0.2</v>
-      </c>
       <c r="T43">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="U43">
-        <v>2836186</v>
+        <v>2814000</v>
       </c>
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="1">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>0.473</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S44">
         <v>0</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="U44">
-        <v>2836768</v>
+        <v>2854940</v>
       </c>
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s">
         <v>63</v>
       </c>
       <c r="C45">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>13.7</v>
+        <v>18.7</v>
       </c>
       <c r="E45">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="F45">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="G45">
         <v>0.5</v>
       </c>
       <c r="H45">
+        <v>1.8</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>3.5</v>
+      </c>
+      <c r="K45">
+        <v>0.522</v>
+      </c>
+      <c r="L45">
+        <v>0.9</v>
+      </c>
+      <c r="M45">
+        <v>1.4</v>
+      </c>
+      <c r="N45">
         <v>1.3</v>
       </c>
-      <c r="I45">
-        <v>0.5</v>
-      </c>
-      <c r="J45">
-        <v>1.5</v>
-      </c>
-      <c r="K45">
-        <v>0.473</v>
-      </c>
-      <c r="L45">
-        <v>0.3</v>
-      </c>
-      <c r="M45">
-        <v>0.3</v>
-      </c>
-      <c r="N45">
-        <v>0.2</v>
-      </c>
       <c r="O45">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="P45">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q45">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="R45">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T45">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="U45">
-        <v>2854940</v>
+        <v>2894059</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3678,412 +3678,412 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="1">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>30.4</v>
+        <v>18.6</v>
       </c>
       <c r="E47">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="F47">
-        <v>13.3</v>
+        <v>7.7</v>
       </c>
       <c r="G47">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H47">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="I47">
+        <v>2.6</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>0.506</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1.3</v>
+      </c>
+      <c r="N47">
+        <v>0.7</v>
+      </c>
+      <c r="O47">
+        <v>3.2</v>
+      </c>
+      <c r="P47">
         <v>3.8</v>
       </c>
-      <c r="J47">
-        <v>9.9</v>
-      </c>
-      <c r="K47">
-        <v>0.404</v>
-      </c>
-      <c r="L47">
-        <v>2.1</v>
-      </c>
-      <c r="M47">
-        <v>3.1</v>
-      </c>
-      <c r="N47">
-        <v>0.5</v>
-      </c>
-      <c r="O47">
-        <v>2.9</v>
-      </c>
-      <c r="P47">
-        <v>3.4</v>
-      </c>
       <c r="Q47">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="S47">
         <v>0.5</v>
       </c>
       <c r="T47">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="U47">
-        <v>3102240</v>
+        <v>3034356</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B48" t="s">
         <v>66</v>
       </c>
       <c r="C48">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>18.1</v>
+        <v>21.2</v>
       </c>
       <c r="E48">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="F48">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>2.7</v>
+      </c>
+      <c r="I48">
+        <v>1.9</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>0.502</v>
+      </c>
+      <c r="L48">
         <v>1.1</v>
       </c>
-      <c r="H48">
-        <v>3.6</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>2.3</v>
-      </c>
-      <c r="K48">
-        <v>0.457</v>
-      </c>
-      <c r="L48">
+      <c r="M48">
+        <v>1.5</v>
+      </c>
+      <c r="N48">
+        <v>0.5</v>
+      </c>
+      <c r="O48">
+        <v>1.7</v>
+      </c>
+      <c r="P48">
+        <v>2.2</v>
+      </c>
+      <c r="Q48">
+        <v>1.2</v>
+      </c>
+      <c r="R48">
         <v>0.8</v>
       </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>0.2</v>
-      </c>
-      <c r="O48">
-        <v>2.6</v>
-      </c>
-      <c r="P48">
-        <v>2.7</v>
-      </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-      <c r="R48">
-        <v>0.5</v>
-      </c>
       <c r="S48">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="T48">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U48">
-        <v>3376000</v>
+        <v>3156600</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D49">
-        <v>26.8</v>
+        <v>10.2</v>
       </c>
       <c r="E49">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="F49">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="G49">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="H49">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="I49">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="J49">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="K49">
-        <v>0.519</v>
+        <v>0.354</v>
       </c>
       <c r="L49">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="M49">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="N49">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="O49">
+        <v>1.9</v>
+      </c>
+      <c r="P49">
         <v>2.8</v>
       </c>
-      <c r="P49">
-        <v>3.2</v>
-      </c>
       <c r="Q49">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="R49">
+        <v>0.3</v>
+      </c>
+      <c r="S49">
         <v>0.4</v>
       </c>
-      <c r="S49">
-        <v>0.1</v>
-      </c>
       <c r="T49">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="U49">
-        <v>3425510</v>
+        <v>3300000</v>
       </c>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="1">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
         <v>68</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>28.8</v>
+        <v>17.9</v>
       </c>
       <c r="E50">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="F50">
-        <v>9.1</v>
+        <v>5.3</v>
       </c>
       <c r="G50">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H50">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="I50">
+        <v>1.4</v>
+      </c>
+      <c r="J50">
+        <v>2.9</v>
+      </c>
+      <c r="K50">
+        <v>0.513</v>
+      </c>
+      <c r="L50">
+        <v>0.6</v>
+      </c>
+      <c r="M50">
+        <v>0.7</v>
+      </c>
+      <c r="N50">
+        <v>0.4</v>
+      </c>
+      <c r="O50">
         <v>1.9</v>
       </c>
-      <c r="J50">
-        <v>4.3</v>
-      </c>
-      <c r="K50">
-        <v>0.467</v>
-      </c>
-      <c r="L50">
-        <v>1.5</v>
-      </c>
-      <c r="M50">
-        <v>1.8</v>
-      </c>
-      <c r="N50">
-        <v>1.1</v>
-      </c>
-      <c r="O50">
-        <v>4.4</v>
-      </c>
       <c r="P50">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q50">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S50">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="T50">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="U50">
-        <v>3542500</v>
+        <v>3741480</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="1">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
         <v>69</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>23.9</v>
       </c>
       <c r="E51">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="F51">
-        <v>9.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="G51">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="J51">
-        <v>8.300000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="K51">
-        <v>0.469</v>
+        <v>0.536</v>
       </c>
       <c r="L51">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="M51">
+        <v>0.8</v>
+      </c>
+      <c r="N51">
+        <v>0.3</v>
+      </c>
+      <c r="O51">
         <v>2.2</v>
       </c>
-      <c r="N51">
-        <v>0.6</v>
-      </c>
-      <c r="O51">
-        <v>4.3</v>
-      </c>
       <c r="P51">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S51">
         <v>0.3</v>
       </c>
       <c r="T51">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="U51">
-        <v>3425510</v>
+        <v>3553917</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="1">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
         <v>70</v>
       </c>
       <c r="C52">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D52">
-        <v>23.3</v>
+        <v>20.2</v>
       </c>
       <c r="E52">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>4.7</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="J52">
-        <v>7.9</v>
+        <v>4.7</v>
       </c>
       <c r="K52">
-        <v>0.424</v>
+        <v>0.516</v>
       </c>
       <c r="L52">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="M52">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="N52">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O52">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="P52">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="Q52">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="R52">
+        <v>0.3</v>
+      </c>
+      <c r="S52">
         <v>0.5</v>
       </c>
-      <c r="S52">
-        <v>0.8</v>
-      </c>
       <c r="T52">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="U52">
-        <v>3807120</v>
+        <v>4050000</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
         <v>71</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D53">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="E53">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="F53">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4092,193 +4092,193 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="J53">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="K53">
-        <v>0.516</v>
+        <v>0.506</v>
       </c>
       <c r="L53">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="M53">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="N53">
         <v>2.1</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="R53">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="S53">
         <v>0.5</v>
       </c>
       <c r="T53">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="U53">
-        <v>4050000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="1">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B54" t="s">
         <v>72</v>
       </c>
       <c r="C54">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>35.7</v>
+        <v>28.4</v>
       </c>
       <c r="E54">
-        <v>8.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="F54">
-        <v>19.7</v>
+        <v>12.3</v>
       </c>
       <c r="G54">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H54">
-        <v>8.1</v>
+        <v>3.4</v>
       </c>
       <c r="I54">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="J54">
-        <v>11.5</v>
+        <v>8.9</v>
       </c>
       <c r="K54">
-        <v>0.4970000000000001</v>
+        <v>0.467</v>
       </c>
       <c r="L54">
+        <v>2.8</v>
+      </c>
+      <c r="M54">
+        <v>3.3</v>
+      </c>
+      <c r="N54">
+        <v>1.8</v>
+      </c>
+      <c r="O54">
         <v>5.5</v>
       </c>
-      <c r="M54">
-        <v>6.2</v>
-      </c>
-      <c r="N54">
-        <v>0.6</v>
-      </c>
-      <c r="O54">
-        <v>3.4</v>
-      </c>
       <c r="P54">
-        <v>4</v>
+        <v>7.3</v>
       </c>
       <c r="Q54">
-        <v>6.8</v>
+        <v>1.3</v>
       </c>
       <c r="R54">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="S54">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="U54">
-        <v>4236287</v>
+        <v>4131720</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="1">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B55" t="s">
         <v>73</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D55">
-        <v>28.4</v>
+        <v>26.6</v>
       </c>
       <c r="E55">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="F55">
-        <v>12.3</v>
+        <v>7.9</v>
       </c>
       <c r="G55">
         <v>1.1</v>
       </c>
       <c r="H55">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I55">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="J55">
-        <v>8.9</v>
+        <v>4.2</v>
       </c>
       <c r="K55">
-        <v>0.467</v>
+        <v>0.4379999999999999</v>
       </c>
       <c r="L55">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="M55">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="N55">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="O55">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="P55">
-        <v>7.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q55">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="R55">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="T55">
         <v>1.7</v>
       </c>
       <c r="U55">
-        <v>4131720</v>
+        <v>4345000</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
         <v>74</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4287,170 +4287,170 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U56">
-        <v>4626960</v>
+        <v>4660482</v>
       </c>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B57" t="s">
         <v>75</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D57">
-        <v>25.9</v>
+        <v>14.6</v>
       </c>
       <c r="E57">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="G57">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="J57">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="K57">
-        <v>0.581</v>
+        <v>0.476</v>
       </c>
       <c r="L57">
         <v>0.9</v>
       </c>
       <c r="M57">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="N57">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="O57">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P57">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="Q57">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="R57">
+        <v>0.3</v>
+      </c>
+      <c r="S57">
+        <v>0.6</v>
+      </c>
+      <c r="T57">
         <v>0.9</v>
       </c>
-      <c r="S57">
-        <v>0.2</v>
-      </c>
-      <c r="T57">
-        <v>1</v>
-      </c>
       <c r="U57">
-        <v>4375000</v>
+        <v>4389607</v>
       </c>
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s">
         <v>76</v>
       </c>
       <c r="C58">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D58">
-        <v>19.9</v>
+        <v>15.1</v>
       </c>
       <c r="E58">
+        <v>1.5</v>
+      </c>
+      <c r="F58">
+        <v>3.7</v>
+      </c>
+      <c r="G58">
+        <v>0.6</v>
+      </c>
+      <c r="H58">
         <v>1.4</v>
-      </c>
-      <c r="F58">
-        <v>4.2</v>
-      </c>
-      <c r="G58">
-        <v>0.4</v>
-      </c>
-      <c r="H58">
-        <v>1.5</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58">
+        <v>2.3</v>
+      </c>
+      <c r="K58">
+        <v>0.488</v>
+      </c>
+      <c r="L58">
+        <v>0.8</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
         <v>2.7</v>
       </c>
-      <c r="K58">
-        <v>0.394</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>1.2</v>
-      </c>
-      <c r="N58">
+      <c r="P58">
+        <v>3.7</v>
+      </c>
+      <c r="Q58">
+        <v>0.8</v>
+      </c>
+      <c r="R58">
         <v>0.3</v>
       </c>
-      <c r="O58">
-        <v>1.7</v>
-      </c>
-      <c r="P58">
-        <v>2</v>
-      </c>
-      <c r="Q58">
-        <v>2.7</v>
-      </c>
-      <c r="R58">
-        <v>0.6</v>
-      </c>
       <c r="S58">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T58">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="U58">
         <v>5000000</v>
@@ -4458,72 +4458,72 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="1">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
         <v>77</v>
       </c>
       <c r="C59">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D59">
-        <v>14.9</v>
+        <v>27.6</v>
       </c>
       <c r="E59">
+        <v>3.6</v>
+      </c>
+      <c r="F59">
+        <v>9.1</v>
+      </c>
+      <c r="G59">
+        <v>1.1</v>
+      </c>
+      <c r="H59">
+        <v>3.1</v>
+      </c>
+      <c r="I59">
+        <v>2.5</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
+      </c>
+      <c r="K59">
+        <v>0.46</v>
+      </c>
+      <c r="L59">
         <v>1.4</v>
       </c>
-      <c r="F59">
-        <v>2.7</v>
-      </c>
-      <c r="G59">
-        <v>0.1</v>
-      </c>
-      <c r="H59">
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
         <v>0.5</v>
       </c>
-      <c r="I59">
-        <v>1.3</v>
-      </c>
-      <c r="J59">
+      <c r="O59">
         <v>2.1</v>
       </c>
-      <c r="K59">
-        <v>0.556</v>
-      </c>
-      <c r="L59">
-        <v>0.9</v>
-      </c>
-      <c r="M59">
-        <v>1.3</v>
-      </c>
-      <c r="N59">
-        <v>1.3</v>
-      </c>
-      <c r="O59">
-        <v>2.3</v>
-      </c>
       <c r="P59">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q59">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="R59">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="S59">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="T59">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="U59">
-        <v>5000000</v>
+        <v>5138430</v>
       </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="1">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
         <v>78</v>
@@ -4532,188 +4532,188 @@
         <v>28</v>
       </c>
       <c r="D60">
-        <v>14.2</v>
+        <v>17.7</v>
       </c>
       <c r="E60">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="F60">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="G60">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>2.9</v>
+      </c>
+      <c r="J60">
+        <v>4.3</v>
+      </c>
+      <c r="K60">
+        <v>0.6729999999999999</v>
+      </c>
+      <c r="L60">
+        <v>1.1</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
         <v>1.2</v>
       </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
+      <c r="O60">
         <v>2.4</v>
       </c>
-      <c r="K60">
-        <v>0.412</v>
-      </c>
-      <c r="L60">
-        <v>0.7</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
+      <c r="P60">
+        <v>3.6</v>
+      </c>
+      <c r="Q60">
         <v>0.5</v>
-      </c>
-      <c r="O60">
-        <v>2</v>
-      </c>
-      <c r="P60">
-        <v>2.5</v>
-      </c>
-      <c r="Q60">
-        <v>1.9</v>
       </c>
       <c r="R60">
         <v>0.4</v>
       </c>
       <c r="S60">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="T60">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="U60">
-        <v>5543725</v>
+        <v>5464000</v>
       </c>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="1">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
         <v>79</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D61">
-        <v>33</v>
+        <v>14.2</v>
       </c>
       <c r="E61">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="F61">
-        <v>13.5</v>
+        <v>3.5</v>
       </c>
       <c r="G61">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H61">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="I61">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>9.6</v>
+        <v>2.4</v>
       </c>
       <c r="K61">
-        <v>0.489</v>
+        <v>0.412</v>
       </c>
       <c r="L61">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="M61">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="N61">
+        <v>0.5</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <v>2.5</v>
+      </c>
+      <c r="Q61">
+        <v>1.9</v>
+      </c>
+      <c r="R61">
+        <v>0.4</v>
+      </c>
+      <c r="S61">
+        <v>0.2</v>
+      </c>
+      <c r="T61">
         <v>0.7</v>
       </c>
-      <c r="O61">
-        <v>4.1</v>
-      </c>
-      <c r="P61">
-        <v>4.8</v>
-      </c>
-      <c r="Q61">
-        <v>3.9</v>
-      </c>
-      <c r="R61">
-        <v>1.6</v>
-      </c>
-      <c r="S61">
-        <v>0.8</v>
-      </c>
-      <c r="T61">
-        <v>2.1</v>
-      </c>
       <c r="U61">
-        <v>5192520</v>
+        <v>5543725</v>
       </c>
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="1">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
         <v>80</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>35.1</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>0.481</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="P62">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="T62">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U62">
-        <v>5758680</v>
+        <v>5613500</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4783,194 +4783,194 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="1">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
         <v>82</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D64">
-        <v>14.3</v>
+        <v>15.8</v>
       </c>
       <c r="E64">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="F64">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="G64">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="J64">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="K64">
-        <v>0.45</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="L64">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="M64">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="N64">
+        <v>1.4</v>
+      </c>
+      <c r="O64">
+        <v>2.7</v>
+      </c>
+      <c r="P64">
+        <v>4.1</v>
+      </c>
+      <c r="Q64">
+        <v>0.9</v>
+      </c>
+      <c r="R64">
         <v>0.3</v>
       </c>
-      <c r="O64">
-        <v>1.3</v>
-      </c>
-      <c r="P64">
-        <v>1.7</v>
-      </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
       <c r="S64">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T64">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="U64">
-        <v>6270000</v>
+        <v>6500000</v>
       </c>
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s">
         <v>83</v>
       </c>
       <c r="C65">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D65">
-        <v>31.6</v>
+        <v>28.7</v>
       </c>
       <c r="E65">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="F65">
-        <v>11.1</v>
+        <v>8.4</v>
       </c>
       <c r="G65">
         <v>1.7</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="I65">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="J65">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="K65">
-        <v>0.518</v>
+        <v>0.539</v>
       </c>
       <c r="L65">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="M65">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="N65">
         <v>1</v>
       </c>
       <c r="O65">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="P65">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q65">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="R65">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="S65">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="T65">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="U65">
-        <v>6796117</v>
+        <v>6486486</v>
       </c>
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
         <v>84</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>0.436</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U66">
         <v>7000000</v>
@@ -4978,217 +4978,217 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="1">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
         <v>85</v>
       </c>
       <c r="C67">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D67">
-        <v>28.1</v>
+        <v>28.9</v>
       </c>
       <c r="E67">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="F67">
-        <v>6.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G67">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H67">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="I67">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="J67">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="K67">
-        <v>0.552</v>
+        <v>0.5539999999999999</v>
       </c>
       <c r="L67">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="M67">
+        <v>1.8</v>
+      </c>
+      <c r="N67">
+        <v>1.6</v>
+      </c>
+      <c r="O67">
+        <v>4.9</v>
+      </c>
+      <c r="P67">
+        <v>6.4</v>
+      </c>
+      <c r="Q67">
+        <v>1.4</v>
+      </c>
+      <c r="R67">
         <v>0.7</v>
       </c>
-      <c r="N67">
-        <v>0.3</v>
-      </c>
-      <c r="O67">
-        <v>2.9</v>
-      </c>
-      <c r="P67">
-        <v>3.2</v>
-      </c>
-      <c r="Q67">
-        <v>4.2</v>
-      </c>
-      <c r="R67">
-        <v>0.9</v>
-      </c>
       <c r="S67">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="T67">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="U67">
-        <v>7402812</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
         <v>86</v>
       </c>
       <c r="C68">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D68">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="E68">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="F68">
-        <v>8.9</v>
+        <v>11.2</v>
       </c>
       <c r="G68">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H68">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="I68">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="J68">
-        <v>5.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K68">
-        <v>0.496</v>
+        <v>0.458</v>
       </c>
       <c r="L68">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="M68">
+        <v>2.3</v>
+      </c>
+      <c r="N68">
+        <v>1.1</v>
+      </c>
+      <c r="O68">
+        <v>4.4</v>
+      </c>
+      <c r="P68">
+        <v>5.5</v>
+      </c>
+      <c r="Q68">
+        <v>1.9</v>
+      </c>
+      <c r="R68">
+        <v>0.9</v>
+      </c>
+      <c r="S68">
+        <v>0.5</v>
+      </c>
+      <c r="T68">
         <v>2.1</v>
       </c>
-      <c r="N68">
-        <v>1.9</v>
-      </c>
-      <c r="O68">
-        <v>3.5</v>
-      </c>
-      <c r="P68">
-        <v>5.4</v>
-      </c>
-      <c r="Q68">
-        <v>0.9</v>
-      </c>
-      <c r="R68">
-        <v>0.7</v>
-      </c>
-      <c r="S68">
-        <v>0.4</v>
-      </c>
-      <c r="T68">
-        <v>1</v>
-      </c>
       <c r="U68">
-        <v>7900000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
         <v>87</v>
       </c>
       <c r="C69">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69">
-        <v>20.4</v>
+        <v>35.3</v>
       </c>
       <c r="E69">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="F69">
-        <v>6.7</v>
+        <v>10.6</v>
       </c>
       <c r="G69">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H69">
-        <v>2.7</v>
+        <v>6.2</v>
       </c>
       <c r="I69">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J69">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K69">
-        <v>0.439</v>
+        <v>0.523</v>
       </c>
       <c r="L69">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="M69">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O69">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="P69">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q69">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S69">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T69">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="U69">
-        <v>8229375</v>
+        <v>8193030</v>
       </c>
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="1">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
         <v>88</v>
       </c>
       <c r="C70">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D70">
-        <v>14.6</v>
+        <v>17.3</v>
       </c>
       <c r="E70">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -5197,173 +5197,173 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J70">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K70">
-        <v>0.47</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="L70">
+        <v>0.9</v>
+      </c>
+      <c r="M70">
+        <v>1.6</v>
+      </c>
+      <c r="N70">
+        <v>1.8</v>
+      </c>
+      <c r="O70">
+        <v>4.3</v>
+      </c>
+      <c r="P70">
+        <v>6.1</v>
+      </c>
+      <c r="Q70">
         <v>0.4</v>
       </c>
-      <c r="M70">
-        <v>0.6</v>
-      </c>
-      <c r="N70">
-        <v>0.4</v>
-      </c>
-      <c r="O70">
-        <v>3.6</v>
-      </c>
-      <c r="P70">
-        <v>3.9</v>
-      </c>
-      <c r="Q70">
-        <v>1.6</v>
-      </c>
       <c r="R70">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="S70">
         <v>0.3</v>
       </c>
       <c r="T70">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="U70">
-        <v>8500000</v>
+        <v>9213483</v>
       </c>
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>89</v>
       </c>
       <c r="C71">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D71">
-        <v>19.9</v>
+        <v>35.2</v>
       </c>
       <c r="E71">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="F71">
-        <v>6.9</v>
+        <v>10.9</v>
       </c>
       <c r="G71">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H71">
+        <v>2.4</v>
+      </c>
+      <c r="I71">
+        <v>4.1</v>
+      </c>
+      <c r="J71">
+        <v>8.5</v>
+      </c>
+      <c r="K71">
+        <v>0.494</v>
+      </c>
+      <c r="L71">
+        <v>1.2</v>
+      </c>
+      <c r="M71">
+        <v>2.1</v>
+      </c>
+      <c r="N71">
         <v>1.1</v>
       </c>
-      <c r="I71">
-        <v>2.9</v>
-      </c>
-      <c r="J71">
-        <v>5.7</v>
-      </c>
-      <c r="K71">
-        <v>0.513</v>
-      </c>
-      <c r="L71">
-        <v>1.3</v>
-      </c>
-      <c r="M71">
-        <v>1.6</v>
-      </c>
-      <c r="N71">
-        <v>0.6</v>
-      </c>
       <c r="O71">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="P71">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q71">
-        <v>1.9</v>
+        <v>11.7</v>
       </c>
       <c r="R71">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="S71">
         <v>0.1</v>
       </c>
       <c r="T71">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="U71">
-        <v>9000000</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
         <v>90</v>
       </c>
       <c r="C72">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D72">
-        <v>26.1</v>
+        <v>16.1</v>
       </c>
       <c r="E72">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="F72">
-        <v>7.1</v>
+        <v>4.3</v>
       </c>
       <c r="G72">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>4.4</v>
+        <v>0.1</v>
       </c>
       <c r="I72">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="J72">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="K72">
-        <v>0.48</v>
+        <v>0.523</v>
       </c>
       <c r="L72">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="M72">
+        <v>1.3</v>
+      </c>
+      <c r="N72">
+        <v>1.3</v>
+      </c>
+      <c r="O72">
+        <v>2.1</v>
+      </c>
+      <c r="P72">
+        <v>3.3</v>
+      </c>
+      <c r="Q72">
+        <v>0.8</v>
+      </c>
+      <c r="R72">
         <v>0.6</v>
       </c>
-      <c r="N72">
-        <v>0.6</v>
-      </c>
-      <c r="O72">
-        <v>3.2</v>
-      </c>
-      <c r="P72">
-        <v>3.8</v>
-      </c>
-      <c r="Q72">
-        <v>1.8</v>
-      </c>
-      <c r="R72">
-        <v>1</v>
-      </c>
       <c r="S72">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="T72">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="U72">
-        <v>10000000</v>
+        <v>9756250</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -5433,7 +5433,7 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B74" t="s">
         <v>92</v>
@@ -5442,143 +5442,143 @@
         <v>25</v>
       </c>
       <c r="D74">
-        <v>31.3</v>
+        <v>35.6</v>
       </c>
       <c r="E74">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="F74">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H74">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="I74">
-        <v>8.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="J74">
-        <v>16</v>
+        <v>10.4</v>
       </c>
       <c r="K74">
-        <v>0.511</v>
+        <v>0.495</v>
       </c>
       <c r="L74">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="M74">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="N74">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="O74">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="P74">
-        <v>8.9</v>
+        <v>4.4</v>
       </c>
       <c r="Q74">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
       <c r="R74">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="S74">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="T74">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="U74">
-        <v>11250000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
         <v>93</v>
       </c>
       <c r="C75">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D75">
-        <v>26.6</v>
+        <v>22.8</v>
       </c>
       <c r="E75">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="F75">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="G75">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H75">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="I75">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="J75">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="K75">
-        <v>0.552</v>
+        <v>0.596</v>
       </c>
       <c r="L75">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="M75">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="N75">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="P75">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="Q75">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="R75">
+        <v>0.7</v>
+      </c>
+      <c r="S75">
         <v>1.1</v>
-      </c>
-      <c r="S75">
-        <v>0.3</v>
       </c>
       <c r="T75">
         <v>1.2</v>
       </c>
       <c r="U75">
-        <v>11710456</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="1">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
         <v>94</v>
       </c>
       <c r="C76">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D76">
-        <v>27.1</v>
+        <v>21.9</v>
       </c>
       <c r="E76">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="F76">
-        <v>8.1</v>
+        <v>4.6</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -5587,113 +5587,113 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="J76">
-        <v>8.1</v>
+        <v>4.6</v>
       </c>
       <c r="K76">
-        <v>0.539</v>
+        <v>0.383</v>
       </c>
       <c r="L76">
+        <v>0.8</v>
+      </c>
+      <c r="M76">
         <v>1.6</v>
       </c>
-      <c r="M76">
-        <v>2</v>
-      </c>
       <c r="N76">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="P76">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q76">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="R76">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="S76">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="T76">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="U76">
-        <v>12650000</v>
+        <v>13400000</v>
       </c>
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s">
         <v>95</v>
       </c>
       <c r="C77">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D77">
-        <v>35</v>
+        <v>32.1</v>
       </c>
       <c r="E77">
         <v>5.3</v>
       </c>
       <c r="F77">
-        <v>12.5</v>
+        <v>11.1</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H77">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="I77">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="J77">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K77">
+        <v>0.513</v>
+      </c>
+      <c r="L77">
+        <v>1.2</v>
+      </c>
+      <c r="M77">
+        <v>1.6</v>
+      </c>
+      <c r="N77">
+        <v>1.8</v>
+      </c>
+      <c r="O77">
+        <v>5</v>
+      </c>
+      <c r="P77">
         <v>6.8</v>
       </c>
-      <c r="K77">
-        <v>0.506</v>
-      </c>
-      <c r="L77">
-        <v>2.3</v>
-      </c>
-      <c r="M77">
-        <v>2.7</v>
-      </c>
-      <c r="N77">
+      <c r="Q77">
         <v>0.8</v>
       </c>
-      <c r="O77">
-        <v>5.3</v>
-      </c>
-      <c r="P77">
-        <v>6.1</v>
-      </c>
-      <c r="Q77">
-        <v>5.8</v>
-      </c>
       <c r="R77">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="S77">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="U77">
-        <v>13125306</v>
+        <v>12250000</v>
       </c>
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
         <v>96</v>
@@ -5702,120 +5702,120 @@
         <v>24</v>
       </c>
       <c r="D78">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="E78">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="F78">
-        <v>14.5</v>
+        <v>17.2</v>
       </c>
       <c r="G78">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H78">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="I78">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J78">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="K78">
-        <v>0.507</v>
+        <v>0.482</v>
       </c>
       <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
         <v>3.5</v>
       </c>
-      <c r="M78">
+      <c r="N78">
+        <v>0.7</v>
+      </c>
+      <c r="O78">
+        <v>3.2</v>
+      </c>
+      <c r="P78">
         <v>3.9</v>
       </c>
-      <c r="N78">
-        <v>0.6</v>
-      </c>
-      <c r="O78">
-        <v>3.3</v>
-      </c>
-      <c r="P78">
-        <v>3.8</v>
-      </c>
       <c r="Q78">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="R78">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="S78">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="T78">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="U78">
-        <v>14700000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" t="s">
         <v>97</v>
       </c>
       <c r="C79">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D79">
-        <v>36</v>
+        <v>34.2</v>
       </c>
       <c r="E79">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="F79">
-        <v>17.2</v>
+        <v>15.9</v>
       </c>
       <c r="G79">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H79">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="I79">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="J79">
-        <v>10.5</v>
+        <v>11.7</v>
       </c>
       <c r="K79">
-        <v>0.482</v>
+        <v>0.502</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M79">
+        <v>5.5</v>
+      </c>
+      <c r="N79">
+        <v>0.6</v>
+      </c>
+      <c r="O79">
         <v>3.5</v>
       </c>
-      <c r="N79">
-        <v>0.7</v>
-      </c>
-      <c r="O79">
-        <v>3.2</v>
-      </c>
       <c r="P79">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Q79">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="R79">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="T79">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U79">
         <v>13500000</v>
@@ -5823,132 +5823,132 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
         <v>98</v>
       </c>
       <c r="C80">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D80">
-        <v>32.8</v>
+        <v>36.2</v>
       </c>
       <c r="E80">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="F80">
-        <v>12.2</v>
+        <v>15</v>
       </c>
       <c r="G80">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H80">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="I80">
+        <v>4.7</v>
+      </c>
+      <c r="J80">
+        <v>9.9</v>
+      </c>
+      <c r="K80">
+        <v>0.493</v>
+      </c>
+      <c r="L80">
         <v>4.9</v>
       </c>
-      <c r="J80">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="K80">
-        <v>0.513</v>
-      </c>
-      <c r="L80">
-        <v>1.7</v>
-      </c>
       <c r="M80">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N80">
         <v>0.8</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P80">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q80">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="R80">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="S80">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T80">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>14783000</v>
+        <v>15409570</v>
       </c>
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B81" t="s">
         <v>99</v>
       </c>
       <c r="C81">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D81">
-        <v>23.2</v>
+        <v>33.3</v>
       </c>
       <c r="E81">
-        <v>2.2</v>
+        <v>8.1</v>
       </c>
       <c r="F81">
-        <v>5.1</v>
+        <v>17.3</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="I81">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="J81">
-        <v>5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K81">
-        <v>0.4429999999999999</v>
+        <v>0.569</v>
       </c>
       <c r="L81">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="M81">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N81">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="O81">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q81">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="R81">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="S81">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="T81">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="U81">
-        <v>15592217</v>
+        <v>15501000</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -6018,137 +6018,137 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
         <v>101</v>
       </c>
       <c r="C83">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D83">
-        <v>21</v>
+        <v>33.4</v>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>8.6</v>
       </c>
       <c r="F83">
-        <v>8.800000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="G83">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H83">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I83">
+        <v>8.4</v>
+      </c>
+      <c r="J83">
+        <v>16.7</v>
+      </c>
+      <c r="K83">
+        <v>0.504</v>
+      </c>
+      <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>5.5</v>
+      </c>
+      <c r="N83">
+        <v>1.5</v>
+      </c>
+      <c r="O83">
+        <v>6.9</v>
+      </c>
+      <c r="P83">
+        <v>8.4</v>
+      </c>
+      <c r="Q83">
         <v>4.9</v>
       </c>
-      <c r="J83">
-        <v>8.5</v>
-      </c>
-      <c r="K83">
-        <v>0.583</v>
-      </c>
-      <c r="L83">
+      <c r="R83">
+        <v>0.8</v>
+      </c>
+      <c r="S83">
+        <v>0.5</v>
+      </c>
+      <c r="T83">
         <v>2.4</v>
       </c>
-      <c r="M83">
-        <v>3.1</v>
-      </c>
-      <c r="N83">
-        <v>3</v>
-      </c>
-      <c r="O83">
-        <v>5.1</v>
-      </c>
-      <c r="P83">
-        <v>8.1</v>
-      </c>
-      <c r="Q83">
-        <v>0.4</v>
-      </c>
-      <c r="R83">
-        <v>0.3</v>
-      </c>
-      <c r="S83">
-        <v>0.4</v>
-      </c>
-      <c r="T83">
-        <v>1.4</v>
-      </c>
       <c r="U83">
-        <v>16407500</v>
+        <v>18907726</v>
       </c>
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
         <v>102</v>
       </c>
       <c r="C84">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D84">
-        <v>32.1</v>
+        <v>35.8</v>
       </c>
       <c r="E84">
-        <v>5.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F84">
-        <v>8.5</v>
+        <v>19.2</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H84">
-        <v>0.1</v>
+        <v>6.7</v>
       </c>
       <c r="I84">
-        <v>5.2</v>
+        <v>7.1</v>
       </c>
       <c r="J84">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="K84">
-        <v>0.62</v>
+        <v>0.573</v>
       </c>
       <c r="L84">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="M84">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="N84">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="O84">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="P84">
-        <v>11.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q84">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="R84">
         <v>1</v>
       </c>
       <c r="S84">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="T84">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="U84">
-        <v>22359364</v>
+        <v>20158622</v>
       </c>
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
         <v>103</v>
@@ -6157,58 +6157,58 @@
         <v>27</v>
       </c>
       <c r="D85">
-        <v>35.8</v>
+        <v>31.8</v>
       </c>
       <c r="E85">
-        <v>9.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="F85">
-        <v>19.2</v>
+        <v>15.9</v>
       </c>
       <c r="G85">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H85">
-        <v>6.7</v>
+        <v>2.3</v>
       </c>
       <c r="I85">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="J85">
-        <v>12.5</v>
+        <v>13.6</v>
       </c>
       <c r="K85">
-        <v>0.573</v>
+        <v>0.448</v>
       </c>
       <c r="L85">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="M85">
-        <v>6.9</v>
+        <v>2.7</v>
       </c>
       <c r="N85">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="O85">
-        <v>7.6</v>
+        <v>2.7</v>
       </c>
       <c r="P85">
-        <v>8.199999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="Q85">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="R85">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S85">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="T85">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="U85">
-        <v>20158622</v>
+        <v>20093064</v>
       </c>
     </row>
   </sheetData>

--- a/nba_players/noisy_datasets/players_stats_0.35__test_.xlsx
+++ b/nba_players/noisy_datasets/players_stats_0.35__test_.xlsx
@@ -76,256 +76,256 @@
     <t>SALARY</t>
   </si>
   <si>
+    <t>Orlando Johnson</t>
+  </si>
+  <si>
     <t>Jeff Ayres</t>
   </si>
   <si>
-    <t>Keith Appling</t>
-  </si>
-  <si>
-    <t>Marcus Thornton</t>
-  </si>
-  <si>
-    <t>Kevin Martin</t>
+    <t>Sean Kilpatrick</t>
+  </si>
+  <si>
+    <t>Andrew Goudelock</t>
+  </si>
+  <si>
+    <t>JaKarr Sampson</t>
   </si>
   <si>
     <t>Nazr Mohammed</t>
   </si>
   <si>
-    <t>Andre Miller</t>
-  </si>
-  <si>
-    <t>Aaron Harrison</t>
-  </si>
-  <si>
-    <t>Cristiano Felicio</t>
-  </si>
-  <si>
-    <t>Jarrid Famous</t>
-  </si>
-  <si>
-    <t>Darrun Hilliard</t>
-  </si>
-  <si>
-    <t>Langston Galloway</t>
-  </si>
-  <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
-    <t>Troy Daniels</t>
+    <t>Ronald Roberts Jr.</t>
+  </si>
+  <si>
+    <t>Shannon Scott</t>
+  </si>
+  <si>
+    <t>Jarell Eddie</t>
+  </si>
+  <si>
+    <t>Anthony Brown</t>
+  </si>
+  <si>
+    <t>Tyler Johnson</t>
+  </si>
+  <si>
+    <t>Russ Smith</t>
+  </si>
+  <si>
+    <t>Raul Neto</t>
   </si>
   <si>
     <t>John Lucas III</t>
   </si>
   <si>
-    <t>Tyler Hansbrough</t>
-  </si>
-  <si>
-    <t>John Jenkins</t>
-  </si>
-  <si>
-    <t>James Anderson</t>
-  </si>
-  <si>
-    <t>Walter Tavares</t>
-  </si>
-  <si>
-    <t>Glenn Robinson III</t>
-  </si>
-  <si>
-    <t>Garrett Temple</t>
-  </si>
-  <si>
-    <t>Archie Goodwin</t>
-  </si>
-  <si>
-    <t>Larry Nance Jr.</t>
-  </si>
-  <si>
-    <t>Reggie Bullock</t>
-  </si>
-  <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Shabazz Napier</t>
-  </si>
-  <si>
-    <t>Shane Larkin</t>
+    <t>Robert Sacre</t>
+  </si>
+  <si>
+    <t>Jerel McNeal</t>
+  </si>
+  <si>
+    <t>Jordan Hamilton</t>
+  </si>
+  <si>
+    <t>Robert Covington</t>
+  </si>
+  <si>
+    <t>Kevon Looney</t>
+  </si>
+  <si>
+    <t>Luke Babbitt</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Earl Clark</t>
+  </si>
+  <si>
+    <t>Jarell Martin</t>
+  </si>
+  <si>
+    <t>Brandon Rush</t>
+  </si>
+  <si>
+    <t>Alonzo Gee</t>
+  </si>
+  <si>
+    <t>Solomon Hill</t>
   </si>
   <si>
     <t>Wayne Ellington</t>
   </si>
   <si>
-    <t>Lance Thomas</t>
+    <t>Delon Wright</t>
+  </si>
+  <si>
+    <t>Tyler Ennis</t>
   </si>
   <si>
     <t>Jerian Grant</t>
   </si>
   <si>
+    <t>Rashad Vaughn</t>
+  </si>
+  <si>
     <t>Jusuf Nurkic</t>
   </si>
   <si>
-    <t>Dennis Schroder</t>
-  </si>
-  <si>
-    <t>David Lee</t>
+    <t>Giannis Antetokounmpo</t>
   </si>
   <si>
     <t>Joe Ingles</t>
   </si>
   <si>
-    <t>Steve Blake</t>
+    <t>Devin Booker</t>
   </si>
   <si>
     <t>Miles Plumlee</t>
   </si>
   <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
     <t>Myles Turner</t>
   </si>
   <si>
-    <t>Aaron Brooks</t>
+    <t>James Johnson</t>
   </si>
   <si>
     <t>Michael Carter-Williams</t>
   </si>
   <si>
-    <t>Shelvin Mack</t>
-  </si>
-  <si>
     <t>Tyler Zeller</t>
   </si>
   <si>
     <t>Kevin Seraphin</t>
   </si>
   <si>
-    <t>Kirk Hinrich</t>
-  </si>
-  <si>
-    <t>Maurice Harkless</t>
-  </si>
-  <si>
-    <t>Meyers Leonard</t>
-  </si>
-  <si>
-    <t>Jeremy Lamb</t>
-  </si>
-  <si>
-    <t>Ben McLemore</t>
-  </si>
-  <si>
-    <t>Drew Gooden</t>
+    <t>Kentavious Caldwell-Pope</t>
+  </si>
+  <si>
+    <t>Furkan Aldemir</t>
+  </si>
+  <si>
+    <t>Austin Rivers</t>
+  </si>
+  <si>
+    <t>Anthony Tolliver</t>
+  </si>
+  <si>
+    <t>Willie Cauley-Stein</t>
+  </si>
+  <si>
+    <t>Quincy Pondexter</t>
   </si>
   <si>
     <t>Mario Hezonja</t>
   </si>
   <si>
-    <t>Terrence Ross</t>
-  </si>
-  <si>
-    <t>Lavoy Allen</t>
+    <t>Nick Collison</t>
   </si>
   <si>
     <t>Jordan Hill</t>
   </si>
   <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Jameer Nelson</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Alexis Ajinca</t>
-  </si>
-  <si>
-    <t>Jonas Jerebko</t>
-  </si>
-  <si>
-    <t>Dion Waiters</t>
-  </si>
-  <si>
-    <t>Brandan Wright</t>
-  </si>
-  <si>
-    <t>Josh McRoberts</t>
-  </si>
-  <si>
-    <t>Martell Webster</t>
-  </si>
-  <si>
-    <t>Gerald Henderson</t>
-  </si>
-  <si>
-    <t>Carl Landry</t>
+    <t>Thabo Sefolosha</t>
+  </si>
+  <si>
+    <t>Jason Smith</t>
+  </si>
+  <si>
+    <t>Mario Chalmers</t>
+  </si>
+  <si>
+    <t>Otto Porter Jr.</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Chris Kaman</t>
+  </si>
+  <si>
+    <t>Darren Collison</t>
+  </si>
+  <si>
+    <t>Deron Williams</t>
+  </si>
+  <si>
+    <t>Shaun Livingston</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Jamal Crawford</t>
+  </si>
+  <si>
+    <t>Patrick Patterson</t>
   </si>
   <si>
     <t>Patrick Beverley</t>
   </si>
   <si>
+    <t>Ed Davis</t>
+  </si>
+  <si>
     <t>Rodney Stuckey</t>
   </si>
   <si>
-    <t>Marvin Williams</t>
-  </si>
-  <si>
-    <t>Markieff Morris</t>
-  </si>
-  <si>
     <t>Trevor Ariza</t>
   </si>
   <si>
-    <t>Omer Asik</t>
-  </si>
-  <si>
-    <t>Rajon Rondo</t>
-  </si>
-  <si>
-    <t>Tiago Splitter</t>
+    <t>Al-Farouq Aminu</t>
+  </si>
+  <si>
+    <t>Kevin Garnett</t>
+  </si>
+  <si>
+    <t>Dirk Nowitzki</t>
+  </si>
+  <si>
+    <t>Wilson Chandler</t>
   </si>
   <si>
     <t>Zach Randolph</t>
   </si>
   <si>
+    <t>Andre Iguodala</t>
+  </si>
+  <si>
     <t>Kemba Walker</t>
   </si>
   <si>
-    <t>Amir Johnson</t>
-  </si>
-  <si>
     <t>Joakim Noah</t>
   </si>
   <si>
-    <t>Serge Ibaka</t>
-  </si>
-  <si>
-    <t>Brandon Knight</t>
+    <t>Nene Hilario</t>
   </si>
   <si>
     <t>Eric Bledsoe</t>
   </si>
   <si>
-    <t>Gordon Hayward</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Roy Hibbert</t>
+  </si>
+  <si>
+    <t>Goran Dragic</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge</t>
   </si>
   <si>
     <t>Blake Griffin</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Derrick Rose</t>
+    <t>Carmelo Anthony</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
   </si>
 </sst>
 </file>
@@ -753,102 +753,102 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>6.3</v>
+        <v>14.4</v>
       </c>
       <c r="E2">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="F2">
+        <v>4.9</v>
+      </c>
+      <c r="G2">
+        <v>0.3</v>
+      </c>
+      <c r="H2">
         <v>1.4</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.1</v>
-      </c>
       <c r="I2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="K2">
-        <v>0.522</v>
+        <v>0.294</v>
       </c>
       <c r="L2">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="M2">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="N2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="O2">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="P2">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q2">
         <v>0.3</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="T2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="U2">
-        <v>111444</v>
+        <v>55722</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="E3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F3">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="I3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="K3">
-        <v>0.25</v>
+        <v>0.522</v>
       </c>
       <c r="L3">
         <v>0.4</v>
@@ -857,155 +857,155 @@
         <v>0.4</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O3">
+        <v>1.1</v>
+      </c>
+      <c r="P3">
+        <v>1.3</v>
+      </c>
+      <c r="Q3">
+        <v>0.3</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>0.2</v>
       </c>
-      <c r="P3">
-        <v>0.2</v>
-      </c>
-      <c r="Q3">
-        <v>0.2</v>
-      </c>
-      <c r="R3">
-        <v>0.2</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="U3">
-        <v>61776</v>
+        <v>111444</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>18.2</v>
+        <v>19.9</v>
       </c>
       <c r="E4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G4">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H4">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="J4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>0.482</v>
+        <v>0.528</v>
       </c>
       <c r="L4">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="M4">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="N4">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O4">
+        <v>1.4</v>
+      </c>
+      <c r="P4">
         <v>1.8</v>
       </c>
-      <c r="P4">
-        <v>2.5</v>
-      </c>
       <c r="Q4">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="R4">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S4">
         <v>0.1</v>
       </c>
       <c r="T4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>200600</v>
+        <v>134215</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>19.9</v>
+        <v>6.3</v>
       </c>
       <c r="E5">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="F5">
-        <v>7.6</v>
+        <v>2.5</v>
       </c>
       <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>1.1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1.4</v>
+      </c>
+      <c r="K5">
+        <v>0.475</v>
+      </c>
+      <c r="L5">
+        <v>0.4</v>
+      </c>
+      <c r="M5">
+        <v>0.5</v>
+      </c>
+      <c r="N5">
+        <v>0.1</v>
+      </c>
+      <c r="O5">
+        <v>0.1</v>
+      </c>
+      <c r="P5">
+        <v>0.3</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>0.8</v>
+      </c>
+      <c r="S5">
+        <v>0.3</v>
+      </c>
+      <c r="T5">
         <v>0.9</v>
-      </c>
-      <c r="H5">
-        <v>2.5</v>
-      </c>
-      <c r="I5">
-        <v>1.9</v>
-      </c>
-      <c r="J5">
-        <v>5.1</v>
-      </c>
-      <c r="K5">
-        <v>0.431</v>
-      </c>
-      <c r="L5">
-        <v>2.8</v>
-      </c>
-      <c r="M5">
-        <v>3.1</v>
-      </c>
-      <c r="N5">
-        <v>0.3</v>
-      </c>
-      <c r="O5">
-        <v>1.7</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <v>1.1</v>
-      </c>
-      <c r="R5">
-        <v>0.5</v>
-      </c>
-      <c r="S5">
-        <v>0.1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
       </c>
       <c r="U5">
         <v>200600</v>
@@ -1013,194 +1013,194 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>3.8</v>
+        <v>15.9</v>
       </c>
       <c r="E6">
+        <v>1.9</v>
+      </c>
+      <c r="F6">
+        <v>4.3</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+      <c r="H6">
+        <v>0.9</v>
+      </c>
+      <c r="I6">
+        <v>1.7</v>
+      </c>
+      <c r="J6">
+        <v>3.5</v>
+      </c>
+      <c r="K6">
+        <v>0.464</v>
+      </c>
+      <c r="L6">
+        <v>1.1</v>
+      </c>
+      <c r="M6">
+        <v>1.7</v>
+      </c>
+      <c r="N6">
         <v>0.6</v>
       </c>
-      <c r="F6">
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>2.6</v>
+      </c>
+      <c r="Q6">
+        <v>0.6</v>
+      </c>
+      <c r="R6">
+        <v>0.3</v>
+      </c>
+      <c r="S6">
+        <v>0.5</v>
+      </c>
+      <c r="T6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.6</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0.6</v>
-      </c>
-      <c r="L6">
-        <v>0.4</v>
-      </c>
-      <c r="M6">
-        <v>0.4</v>
-      </c>
-      <c r="N6">
-        <v>0.2</v>
-      </c>
-      <c r="O6">
-        <v>0.6</v>
-      </c>
-      <c r="P6">
-        <v>0.8</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0.6</v>
-      </c>
       <c r="U6">
-        <v>222888</v>
+        <v>258489</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>11.8</v>
+        <v>3.8</v>
       </c>
       <c r="E7">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="F7">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.6</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0.6</v>
+      </c>
+      <c r="L7">
+        <v>0.4</v>
+      </c>
+      <c r="M7">
+        <v>0.4</v>
+      </c>
+      <c r="N7">
         <v>0.2</v>
       </c>
-      <c r="I7">
-        <v>1.5</v>
-      </c>
-      <c r="J7">
-        <v>2.5</v>
-      </c>
-      <c r="K7">
-        <v>0.5660000000000001</v>
-      </c>
-      <c r="L7">
+      <c r="O7">
         <v>0.6</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>0.8</v>
       </c>
-      <c r="N7">
-        <v>0.3</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1.3</v>
-      </c>
       <c r="Q7">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="U7">
-        <v>250750</v>
+        <v>222888</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.342</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>525093</v>
@@ -1208,64 +1208,64 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.556</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>525093</v>
@@ -1273,58 +1273,58 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.423</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1333,134 +1333,134 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>525093</v>
+        <v>561716</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>10.1</v>
+        <v>20.7</v>
       </c>
       <c r="E11">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F11">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H11">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="I11">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="J11">
+        <v>1.9</v>
+      </c>
+      <c r="K11">
+        <v>0.389</v>
+      </c>
+      <c r="L11">
+        <v>0.6</v>
+      </c>
+      <c r="M11">
+        <v>0.7</v>
+      </c>
+      <c r="N11">
+        <v>0.3</v>
+      </c>
+      <c r="O11">
         <v>2.1</v>
       </c>
-      <c r="K11">
-        <v>0.469</v>
-      </c>
-      <c r="L11">
-        <v>0.8</v>
-      </c>
-      <c r="M11">
-        <v>1.1</v>
-      </c>
-      <c r="N11">
-        <v>0.1</v>
-      </c>
-      <c r="O11">
-        <v>1.1</v>
-      </c>
       <c r="P11">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q11">
         <v>0.7</v>
       </c>
       <c r="R11">
+        <v>0.5</v>
+      </c>
+      <c r="S11">
         <v>0.2</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
       </c>
       <c r="T11">
         <v>0.5</v>
       </c>
       <c r="U11">
-        <v>600000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12">
         <v>24</v>
       </c>
-      <c r="D12">
-        <v>24.8</v>
-      </c>
       <c r="E12">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="F12">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="G12">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H12">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="J12">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="K12">
-        <v>0.458</v>
+        <v>0.541</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="M12">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="N12">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O12">
+        <v>2.3</v>
+      </c>
+      <c r="P12">
         <v>3</v>
       </c>
-      <c r="P12">
-        <v>3.5</v>
-      </c>
       <c r="Q12">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="R12">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="S12">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="T12">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="U12">
         <v>845059</v>
@@ -1468,64 +1468,64 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>13.3</v>
+        <v>4.4</v>
       </c>
       <c r="E13">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="F13">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="G13">
         <v>0.1</v>
       </c>
       <c r="H13">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="I13">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="J13">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="K13">
-        <v>0.361</v>
+        <v>0.341</v>
       </c>
       <c r="L13">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="N13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O13">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="P13">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="Q13">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="R13">
         <v>0.3</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="U13">
         <v>845059</v>
@@ -1533,67 +1533,67 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>11.1</v>
+        <v>18.5</v>
       </c>
       <c r="E14">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="F14">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="G14">
+        <v>0.8</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
         <v>1.4</v>
       </c>
-      <c r="H14">
-        <v>2.8</v>
-      </c>
-      <c r="I14">
-        <v>0.7</v>
-      </c>
       <c r="J14">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="K14">
-        <v>0.634</v>
+        <v>0.507</v>
       </c>
       <c r="L14">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="M14">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="N14">
         <v>0.2</v>
       </c>
       <c r="O14">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P14">
+        <v>1.5</v>
+      </c>
+      <c r="Q14">
+        <v>2.1</v>
+      </c>
+      <c r="R14">
+        <v>0.8</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>1.3</v>
       </c>
-      <c r="Q14">
-        <v>0.5</v>
-      </c>
-      <c r="R14">
-        <v>0.3</v>
-      </c>
-      <c r="S14">
-        <v>0.1</v>
-      </c>
-      <c r="T14">
-        <v>0.6</v>
-      </c>
       <c r="U14">
-        <v>947276</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1663,129 +1663,129 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>7.8</v>
+        <v>12.8</v>
       </c>
       <c r="E16">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="F16">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="J16">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K16">
-        <v>0.465</v>
+        <v>0.413</v>
       </c>
       <c r="L16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>1.5</v>
       </c>
       <c r="N16">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="O16">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="Q16">
+        <v>0.6</v>
+      </c>
+      <c r="R16">
         <v>0.2</v>
       </c>
-      <c r="R16">
-        <v>0.3</v>
-      </c>
       <c r="S16">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="T16">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="U16">
-        <v>947276</v>
+        <v>981348</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.494</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>981348</v>
@@ -1793,64 +1793,64 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>14.1</v>
+        <v>27.6</v>
       </c>
       <c r="E18">
+        <v>4.5</v>
+      </c>
+      <c r="F18">
+        <v>10.5</v>
+      </c>
+      <c r="G18">
+        <v>1.2</v>
+      </c>
+      <c r="H18">
+        <v>4.1</v>
+      </c>
+      <c r="I18">
+        <v>3.3</v>
+      </c>
+      <c r="J18">
+        <v>6.5</v>
+      </c>
+      <c r="K18">
+        <v>0.478</v>
+      </c>
+      <c r="L18">
         <v>1.3</v>
       </c>
-      <c r="F18">
-        <v>3.5</v>
-      </c>
-      <c r="G18">
-        <v>0.5</v>
-      </c>
-      <c r="H18">
-        <v>1.7</v>
-      </c>
-      <c r="I18">
-        <v>0.9</v>
-      </c>
-      <c r="J18">
-        <v>1.8</v>
-      </c>
-      <c r="K18">
-        <v>0.441</v>
-      </c>
-      <c r="L18">
-        <v>0.4</v>
-      </c>
       <c r="M18">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="N18">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="O18">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="P18">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="Q18">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="R18">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="S18">
         <v>0.3</v>
       </c>
       <c r="T18">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U18">
         <v>1015421</v>
@@ -1858,64 +1858,64 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>6.6</v>
+        <v>28.4</v>
       </c>
       <c r="E19">
+        <v>4.1</v>
+      </c>
+      <c r="F19">
+        <v>10.6</v>
+      </c>
+      <c r="G19">
+        <v>2.5</v>
+      </c>
+      <c r="H19">
+        <v>7.2</v>
+      </c>
+      <c r="I19">
+        <v>1.6</v>
+      </c>
+      <c r="J19">
+        <v>3.4</v>
+      </c>
+      <c r="K19">
+        <v>0.504</v>
+      </c>
+      <c r="L19">
+        <v>2.1</v>
+      </c>
+      <c r="M19">
+        <v>2.6</v>
+      </c>
+      <c r="N19">
         <v>1</v>
       </c>
-      <c r="F19">
-        <v>1.7</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1.7</v>
-      </c>
-      <c r="K19">
-        <v>0.579</v>
-      </c>
-      <c r="L19">
-        <v>0.3</v>
-      </c>
-      <c r="M19">
-        <v>0.7</v>
-      </c>
-      <c r="N19">
+      <c r="O19">
+        <v>5.3</v>
+      </c>
+      <c r="P19">
+        <v>6.3</v>
+      </c>
+      <c r="Q19">
+        <v>1.4</v>
+      </c>
+      <c r="R19">
+        <v>1.6</v>
+      </c>
+      <c r="S19">
         <v>0.6</v>
       </c>
-      <c r="O19">
-        <v>1.3</v>
-      </c>
-      <c r="P19">
-        <v>1.9</v>
-      </c>
-      <c r="Q19">
-        <v>0.3</v>
-      </c>
-      <c r="R19">
-        <v>0.1</v>
-      </c>
-      <c r="S19">
-        <v>0.5</v>
-      </c>
       <c r="T19">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="U19">
         <v>1000000</v>
@@ -1923,37 +1923,37 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.643</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1962,13 +1962,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1980,72 +1980,72 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U20">
-        <v>1100000</v>
+        <v>1131960</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>24.4</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="F21">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="G21">
+        <v>0.9</v>
+      </c>
+      <c r="H21">
+        <v>2.3</v>
+      </c>
+      <c r="I21">
+        <v>1.7</v>
+      </c>
+      <c r="J21">
+        <v>3.8</v>
+      </c>
+      <c r="K21">
+        <v>0.498</v>
+      </c>
+      <c r="L21">
+        <v>0.8</v>
+      </c>
+      <c r="M21">
         <v>1.1</v>
-      </c>
-      <c r="H21">
-        <v>3.2</v>
-      </c>
-      <c r="I21">
-        <v>1.4</v>
-      </c>
-      <c r="J21">
-        <v>3.1</v>
-      </c>
-      <c r="K21">
-        <v>0.486</v>
-      </c>
-      <c r="L21">
-        <v>1.1</v>
-      </c>
-      <c r="M21">
-        <v>1.6</v>
       </c>
       <c r="N21">
         <v>0.5</v>
       </c>
       <c r="O21">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="P21">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q21">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="R21">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="S21">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T21">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="U21">
         <v>1100602</v>
@@ -2053,332 +2053,332 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="1">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>19.5</v>
+        <v>31.7</v>
       </c>
       <c r="E22">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F22">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="G22">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="J22">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K22">
-        <v>0.444</v>
+        <v>0.5589999999999999</v>
       </c>
       <c r="L22">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="M22">
+        <v>4.6</v>
+      </c>
+      <c r="N22">
         <v>3.4</v>
       </c>
-      <c r="N22">
-        <v>0.5</v>
-      </c>
       <c r="O22">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="P22">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q22">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="R22">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="S22">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="T22">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U22">
-        <v>1160160</v>
+        <v>1175880</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="1">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>20.1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.528</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>1155600</v>
+        <v>1185784</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="1">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>11.6</v>
+        <v>14.1</v>
       </c>
       <c r="E24">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0.1</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>4.2</v>
+      </c>
+      <c r="K24">
+        <v>0.466</v>
+      </c>
+      <c r="L24">
+        <v>1.7</v>
+      </c>
+      <c r="M24">
+        <v>2.3</v>
+      </c>
+      <c r="N24">
+        <v>1.4</v>
+      </c>
+      <c r="O24">
+        <v>1.7</v>
+      </c>
+      <c r="P24">
+        <v>3.2</v>
+      </c>
+      <c r="Q24">
         <v>0.6</v>
-      </c>
-      <c r="H24">
-        <v>1.4</v>
-      </c>
-      <c r="I24">
-        <v>0.6</v>
-      </c>
-      <c r="J24">
-        <v>1.2</v>
-      </c>
-      <c r="K24">
-        <v>0.551</v>
-      </c>
-      <c r="L24">
-        <v>0.4</v>
-      </c>
-      <c r="M24">
-        <v>0.4</v>
-      </c>
-      <c r="N24">
-        <v>0.4</v>
-      </c>
-      <c r="O24">
-        <v>1.5</v>
-      </c>
-      <c r="P24">
-        <v>1.8</v>
-      </c>
-      <c r="Q24">
-        <v>0.7</v>
       </c>
       <c r="R24">
         <v>0.3</v>
       </c>
       <c r="S24">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="T24">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="U24">
-        <v>1252440</v>
+        <v>1230840</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>19.1</v>
+        <v>14.7</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F25">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="J25">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="K25">
-        <v>0.5820000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="M25">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="N25">
+        <v>0.3</v>
+      </c>
+      <c r="O25">
+        <v>2.2</v>
+      </c>
+      <c r="P25">
         <v>2.5</v>
       </c>
-      <c r="O25">
-        <v>3.9</v>
-      </c>
-      <c r="P25">
-        <v>6.4</v>
-      </c>
       <c r="Q25">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="R25">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="S25">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="T25">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="U25">
-        <v>1242720</v>
+        <v>1270964</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>21.7</v>
+        <v>22.4</v>
       </c>
       <c r="E26">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="F26">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="G26">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H26">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="I26">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="J26">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="K26">
-        <v>0.535</v>
+        <v>0.551</v>
       </c>
       <c r="L26">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="M26">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="N26">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="O26">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="P26">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q26">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S26">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="T26">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="U26">
-        <v>1300000</v>
+        <v>1320000</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -2387,120 +2387,120 @@
         <v>24</v>
       </c>
       <c r="D27">
-        <v>10.9</v>
+        <v>14.7</v>
       </c>
       <c r="E27">
+        <v>1.6</v>
+      </c>
+      <c r="F27">
+        <v>3.5</v>
+      </c>
+      <c r="G27">
+        <v>0.4</v>
+      </c>
+      <c r="H27">
+        <v>1.3</v>
+      </c>
+      <c r="I27">
         <v>1.2</v>
       </c>
-      <c r="F27">
-        <v>3.7</v>
-      </c>
-      <c r="G27">
-        <v>0.6</v>
-      </c>
-      <c r="H27">
-        <v>1.9</v>
-      </c>
-      <c r="I27">
-        <v>0.6</v>
-      </c>
       <c r="J27">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="K27">
-        <v>0.423</v>
+        <v>0.505</v>
       </c>
       <c r="L27">
         <v>0.6</v>
       </c>
       <c r="M27">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="N27">
+        <v>0.7</v>
+      </c>
+      <c r="O27">
+        <v>2.2</v>
+      </c>
+      <c r="P27">
+        <v>2.8</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>0.6</v>
+      </c>
+      <c r="S27">
         <v>0.2</v>
       </c>
-      <c r="O27">
-        <v>0.8</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>1.8</v>
-      </c>
-      <c r="R27">
-        <v>0.4</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
       <c r="T27">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="U27">
-        <v>1294440</v>
+        <v>1358880</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>22.4</v>
+        <v>21.3</v>
       </c>
       <c r="E28">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="F28">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="G28">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H28">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="I28">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="J28">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="K28">
-        <v>0.481</v>
+        <v>0.474</v>
       </c>
       <c r="L28">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="M28">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="N28">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P28">
         <v>2.3</v>
       </c>
       <c r="Q28">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="R28">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="S28">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T28">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="U28">
         <v>1500000</v>
@@ -2508,58 +2508,58 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>21.3</v>
+        <v>8.5</v>
       </c>
       <c r="E29">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="F29">
-        <v>7.4</v>
+        <v>3</v>
       </c>
       <c r="G29">
+        <v>0.2</v>
+      </c>
+      <c r="H29">
+        <v>0.5</v>
+      </c>
+      <c r="I29">
+        <v>1.1</v>
+      </c>
+      <c r="J29">
+        <v>2.5</v>
+      </c>
+      <c r="K29">
+        <v>0.481</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
         <v>1.3</v>
-      </c>
-      <c r="H29">
-        <v>3.5</v>
-      </c>
-      <c r="I29">
-        <v>1.6</v>
-      </c>
-      <c r="J29">
-        <v>3.9</v>
-      </c>
-      <c r="K29">
-        <v>0.474</v>
-      </c>
-      <c r="L29">
-        <v>0.7</v>
-      </c>
-      <c r="M29">
-        <v>0.8</v>
       </c>
       <c r="N29">
         <v>0.3</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="P29">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q29">
         <v>1.1</v>
       </c>
       <c r="R29">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="S29">
         <v>0.1</v>
@@ -2568,72 +2568,72 @@
         <v>0.6</v>
       </c>
       <c r="U29">
-        <v>1500000</v>
+        <v>1509360</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>22.3</v>
+        <v>14.2</v>
       </c>
       <c r="E30">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="F30">
-        <v>6.5</v>
+        <v>4.1</v>
       </c>
       <c r="G30">
+        <v>0.3</v>
+      </c>
+      <c r="H30">
+        <v>0.8</v>
+      </c>
+      <c r="I30">
+        <v>1.5</v>
+      </c>
+      <c r="J30">
+        <v>3.2</v>
+      </c>
+      <c r="K30">
+        <v>0.484</v>
+      </c>
+      <c r="L30">
+        <v>0.5</v>
+      </c>
+      <c r="M30">
         <v>0.7</v>
       </c>
-      <c r="H30">
-        <v>1.8</v>
-      </c>
-      <c r="I30">
+      <c r="N30">
+        <v>0.3</v>
+      </c>
+      <c r="O30">
+        <v>1.3</v>
+      </c>
+      <c r="P30">
+        <v>1.6</v>
+      </c>
+      <c r="Q30">
         <v>2.1</v>
       </c>
-      <c r="J30">
-        <v>4.6</v>
-      </c>
-      <c r="K30">
+      <c r="R30">
         <v>0.5</v>
       </c>
-      <c r="L30">
-        <v>1.7</v>
-      </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30">
-        <v>0.6</v>
-      </c>
-      <c r="O30">
-        <v>1.6</v>
-      </c>
-      <c r="P30">
-        <v>2.2</v>
-      </c>
-      <c r="Q30">
-        <v>0.9</v>
-      </c>
-      <c r="R30">
-        <v>0.4</v>
-      </c>
       <c r="S30">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <v>1</v>
       </c>
       <c r="U30">
-        <v>1636842</v>
+        <v>1662360</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2703,197 +2703,197 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="1">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>17.1</v>
+        <v>14.3</v>
       </c>
       <c r="E32">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="F32">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H32">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="I32">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="J32">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="K32">
-        <v>0.417</v>
+        <v>0.385</v>
       </c>
       <c r="L32">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="M32">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="P32">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q32">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="R32">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S32">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="T32">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="U32">
-        <v>1842000</v>
+        <v>1733040</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="1">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s">
         <v>51</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>20.3</v>
+        <v>17.1</v>
       </c>
       <c r="E33">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="F33">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="I33">
         <v>3.2</v>
       </c>
       <c r="J33">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="K33">
-        <v>0.471</v>
+        <v>0.417</v>
       </c>
       <c r="L33">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="M33">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N33">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="O33">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q33">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="R33">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="S33">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="T33">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="U33">
-        <v>1763400</v>
+        <v>1842000</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="1">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>16.4</v>
+        <v>35.3</v>
       </c>
       <c r="E34">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="F34">
+        <v>12.7</v>
+      </c>
+      <c r="G34">
+        <v>0.4</v>
+      </c>
+      <c r="H34">
+        <v>1.4</v>
+      </c>
+      <c r="I34">
         <v>6.1</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>3.2</v>
-      </c>
       <c r="J34">
-        <v>6.1</v>
+        <v>11.3</v>
       </c>
       <c r="K34">
-        <v>0.531</v>
+        <v>0.52</v>
       </c>
       <c r="L34">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="M34">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="N34">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O34">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="P34">
-        <v>5.5</v>
+        <v>7.7</v>
       </c>
       <c r="Q34">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="R34">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="S34">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="T34">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="U34">
-        <v>2085671</v>
+        <v>1953960</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2963,67 +2963,67 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="1">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>27.7</v>
       </c>
       <c r="E36">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="F36">
-        <v>4.1</v>
+        <v>11.4</v>
       </c>
       <c r="G36">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H36">
+        <v>3.8</v>
+      </c>
+      <c r="I36">
+        <v>3.5</v>
+      </c>
+      <c r="J36">
+        <v>7.6</v>
+      </c>
+      <c r="K36">
+        <v>0.48</v>
+      </c>
+      <c r="L36">
+        <v>2.8</v>
+      </c>
+      <c r="M36">
+        <v>3.4</v>
+      </c>
+      <c r="N36">
+        <v>0.4</v>
+      </c>
+      <c r="O36">
+        <v>2.1</v>
+      </c>
+      <c r="P36">
+        <v>2.5</v>
+      </c>
+      <c r="Q36">
         <v>2.6</v>
       </c>
-      <c r="I36">
-        <v>0.7</v>
-      </c>
-      <c r="J36">
-        <v>1.5</v>
-      </c>
-      <c r="K36">
-        <v>0.496</v>
-      </c>
-      <c r="L36">
+      <c r="R36">
+        <v>0.6</v>
+      </c>
+      <c r="S36">
         <v>0.3</v>
       </c>
-      <c r="M36">
-        <v>0.3</v>
-      </c>
-      <c r="N36">
-        <v>0.2</v>
-      </c>
-      <c r="O36">
-        <v>1.4</v>
-      </c>
-      <c r="P36">
-        <v>1.5</v>
-      </c>
-      <c r="Q36">
-        <v>3.4</v>
-      </c>
-      <c r="R36">
-        <v>0.4</v>
-      </c>
-      <c r="S36">
-        <v>0.1</v>
-      </c>
       <c r="T36">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="U36">
-        <v>2170465</v>
+        <v>2127840</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3093,262 +3093,262 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="1">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>22.8</v>
+        <v>17.3</v>
       </c>
       <c r="E38">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="F38">
-        <v>8.800000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="G38">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H38">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="I38">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="J38">
-        <v>8.6</v>
+        <v>3.9</v>
       </c>
       <c r="K38">
-        <v>0.501</v>
+        <v>0.494</v>
       </c>
       <c r="L38">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="O38">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="Q38">
         <v>0.7</v>
       </c>
       <c r="R38">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="S38">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="T38">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="U38">
-        <v>2357760</v>
+        <v>2239800</v>
       </c>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
       </c>
       <c r="C39">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>16.1</v>
+        <v>22.8</v>
       </c>
       <c r="E39">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="F39">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H39">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="I39">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="J39">
-        <v>4.1</v>
+        <v>8.6</v>
       </c>
       <c r="K39">
-        <v>0.471</v>
+        <v>0.501</v>
       </c>
       <c r="L39">
+        <v>1.5</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>1.1</v>
+      </c>
+      <c r="O39">
+        <v>4.4</v>
+      </c>
+      <c r="P39">
+        <v>5.5</v>
+      </c>
+      <c r="Q39">
         <v>0.7</v>
-      </c>
-      <c r="M39">
-        <v>0.9</v>
-      </c>
-      <c r="N39">
-        <v>0.3</v>
-      </c>
-      <c r="O39">
-        <v>1.2</v>
-      </c>
-      <c r="P39">
-        <v>1.5</v>
-      </c>
-      <c r="Q39">
-        <v>2.6</v>
       </c>
       <c r="R39">
         <v>0.4</v>
       </c>
       <c r="S39">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="T39">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="U39">
-        <v>2250000</v>
+        <v>2357760</v>
       </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s">
         <v>58</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D40">
-        <v>30.5</v>
+        <v>16.2</v>
       </c>
       <c r="E40">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>10.3</v>
+        <v>4.2</v>
       </c>
       <c r="G40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I40">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="J40">
-        <v>9.300000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K40">
-        <v>0.466</v>
+        <v>0.517</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="N40">
+        <v>0.5</v>
+      </c>
+      <c r="O40">
+        <v>1.7</v>
+      </c>
+      <c r="P40">
+        <v>2.2</v>
+      </c>
+      <c r="Q40">
+        <v>1.2</v>
+      </c>
+      <c r="R40">
+        <v>0.5</v>
+      </c>
+      <c r="S40">
+        <v>0.6</v>
+      </c>
+      <c r="T40">
         <v>0.9</v>
       </c>
-      <c r="O40">
-        <v>4.2</v>
-      </c>
-      <c r="P40">
-        <v>5.1</v>
-      </c>
-      <c r="Q40">
-        <v>5.2</v>
-      </c>
-      <c r="R40">
-        <v>1.5</v>
-      </c>
-      <c r="S40">
-        <v>0.8</v>
-      </c>
-      <c r="T40">
-        <v>2.8</v>
-      </c>
       <c r="U40">
-        <v>2399040</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>20.3</v>
+        <v>30.5</v>
       </c>
       <c r="E41">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>10.3</v>
       </c>
       <c r="G41">
+        <v>0.3</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>4.4</v>
+      </c>
+      <c r="J41">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K41">
+        <v>0.466</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>0.9</v>
+      </c>
+      <c r="O41">
+        <v>4.2</v>
+      </c>
+      <c r="P41">
+        <v>5.1</v>
+      </c>
+      <c r="Q41">
+        <v>5.2</v>
+      </c>
+      <c r="R41">
+        <v>1.5</v>
+      </c>
+      <c r="S41">
         <v>0.8</v>
       </c>
-      <c r="H41">
-        <v>2.4</v>
-      </c>
-      <c r="I41">
+      <c r="T41">
         <v>2.8</v>
       </c>
-      <c r="J41">
-        <v>5.6</v>
-      </c>
-      <c r="K41">
-        <v>0.486</v>
-      </c>
-      <c r="L41">
-        <v>0.9</v>
-      </c>
-      <c r="M41">
-        <v>1.2</v>
-      </c>
-      <c r="N41">
-        <v>0.3</v>
-      </c>
-      <c r="O41">
-        <v>2.2</v>
-      </c>
-      <c r="P41">
-        <v>2.5</v>
-      </c>
-      <c r="Q41">
-        <v>3.6</v>
-      </c>
-      <c r="R41">
-        <v>0.7</v>
-      </c>
-      <c r="S41">
-        <v>0.1</v>
-      </c>
-      <c r="T41">
-        <v>1.8</v>
-      </c>
       <c r="U41">
-        <v>2433333</v>
+        <v>2399040</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3483,137 +3483,137 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="1">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>13.7</v>
+        <v>36.7</v>
       </c>
       <c r="E44">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="F44">
+        <v>12.6</v>
+      </c>
+      <c r="G44">
+        <v>1.5</v>
+      </c>
+      <c r="H44">
+        <v>4.9</v>
+      </c>
+      <c r="I44">
+        <v>3.8</v>
+      </c>
+      <c r="J44">
+        <v>7.8</v>
+      </c>
+      <c r="K44">
+        <v>0.479</v>
+      </c>
+      <c r="L44">
+        <v>2.4</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>0.9</v>
+      </c>
+      <c r="O44">
         <v>2.8</v>
       </c>
-      <c r="G44">
-        <v>0.5</v>
-      </c>
-      <c r="H44">
-        <v>1.3</v>
-      </c>
-      <c r="I44">
-        <v>0.5</v>
-      </c>
-      <c r="J44">
-        <v>1.5</v>
-      </c>
-      <c r="K44">
-        <v>0.473</v>
-      </c>
-      <c r="L44">
-        <v>0.3</v>
-      </c>
-      <c r="M44">
-        <v>0.3</v>
-      </c>
-      <c r="N44">
+      <c r="P44">
+        <v>3.7</v>
+      </c>
+      <c r="Q44">
+        <v>1.8</v>
+      </c>
+      <c r="R44">
+        <v>1.4</v>
+      </c>
+      <c r="S44">
         <v>0.2</v>
       </c>
-      <c r="O44">
-        <v>1.3</v>
-      </c>
-      <c r="P44">
-        <v>1.5</v>
-      </c>
-      <c r="Q44">
-        <v>1.6</v>
-      </c>
-      <c r="R44">
-        <v>0.3</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
       <c r="T44">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="U44">
-        <v>2854940</v>
+        <v>2891760</v>
       </c>
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="1">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B45" t="s">
         <v>63</v>
       </c>
       <c r="C45">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>18.7</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>0.522</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>2894059</v>
+        <v>2836768</v>
       </c>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B46" t="s">
         <v>64</v>
@@ -3625,125 +3625,125 @@
         <v>21.9</v>
       </c>
       <c r="E46">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="F46">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="G46">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H46">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="I46">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="J46">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="K46">
-        <v>0.547</v>
+        <v>0.498</v>
       </c>
       <c r="L46">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="M46">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="N46">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="O46">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="P46">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="Q46">
         <v>1.5</v>
       </c>
       <c r="R46">
+        <v>0.7</v>
+      </c>
+      <c r="S46">
         <v>0.1</v>
       </c>
-      <c r="S46">
-        <v>0.3</v>
-      </c>
       <c r="T46">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="U46">
-        <v>3075880</v>
+        <v>3110796</v>
       </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="1">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D47">
         <v>18.6</v>
       </c>
       <c r="E47">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="F47">
-        <v>7.7</v>
+        <v>4.6</v>
       </c>
       <c r="G47">
+        <v>1.4</v>
+      </c>
+      <c r="H47">
+        <v>3.8</v>
+      </c>
+      <c r="I47">
+        <v>0.4</v>
+      </c>
+      <c r="J47">
         <v>0.8</v>
       </c>
-      <c r="H47">
-        <v>2.7</v>
-      </c>
-      <c r="I47">
+      <c r="K47">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="L47">
+        <v>0.4</v>
+      </c>
+      <c r="M47">
+        <v>0.7</v>
+      </c>
+      <c r="N47">
+        <v>0.5</v>
+      </c>
+      <c r="O47">
         <v>2.6</v>
       </c>
-      <c r="J47">
-        <v>5</v>
-      </c>
-      <c r="K47">
-        <v>0.506</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1.3</v>
-      </c>
-      <c r="N47">
+      <c r="P47">
+        <v>3.2</v>
+      </c>
+      <c r="Q47">
         <v>0.7</v>
       </c>
-      <c r="O47">
-        <v>3.2</v>
-      </c>
-      <c r="P47">
-        <v>3.8</v>
-      </c>
-      <c r="Q47">
-        <v>1.2</v>
-      </c>
       <c r="R47">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="S47">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="T47">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U47">
-        <v>3034356</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s">
         <v>66</v>
@@ -3752,123 +3752,123 @@
         <v>22</v>
       </c>
       <c r="D48">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="E48">
         <v>2.9</v>
       </c>
       <c r="F48">
-        <v>6.7</v>
+        <v>5.1</v>
       </c>
       <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>2.9</v>
+      </c>
+      <c r="J48">
+        <v>5.1</v>
+      </c>
+      <c r="K48">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="L48">
+        <v>1.2</v>
+      </c>
+      <c r="M48">
+        <v>1.9</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>3.3</v>
+      </c>
+      <c r="P48">
+        <v>5.3</v>
+      </c>
+      <c r="Q48">
+        <v>0.6</v>
+      </c>
+      <c r="R48">
+        <v>0.7</v>
+      </c>
+      <c r="S48">
         <v>1</v>
       </c>
-      <c r="H48">
-        <v>2.7</v>
-      </c>
-      <c r="I48">
-        <v>1.9</v>
-      </c>
-      <c r="J48">
-        <v>4</v>
-      </c>
-      <c r="K48">
-        <v>0.502</v>
-      </c>
-      <c r="L48">
-        <v>1.1</v>
-      </c>
-      <c r="M48">
-        <v>1.5</v>
-      </c>
-      <c r="N48">
-        <v>0.5</v>
-      </c>
-      <c r="O48">
-        <v>1.7</v>
-      </c>
-      <c r="P48">
-        <v>2.2</v>
-      </c>
-      <c r="Q48">
-        <v>1.2</v>
-      </c>
-      <c r="R48">
-        <v>0.8</v>
-      </c>
-      <c r="S48">
-        <v>0.1</v>
-      </c>
       <c r="T48">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="U48">
-        <v>3156600</v>
+        <v>3398280</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
       </c>
       <c r="C49">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>0.354</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>3300000</v>
+        <v>3382023</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3938,87 +3938,87 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="1">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
         <v>69</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D51">
-        <v>23.9</v>
+        <v>11.8</v>
       </c>
       <c r="E51">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="F51">
-        <v>8.6</v>
+        <v>1.8</v>
       </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0.8</v>
+      </c>
+      <c r="J51">
         <v>1.8</v>
       </c>
-      <c r="H51">
-        <v>4.6</v>
-      </c>
-      <c r="I51">
-        <v>1.9</v>
-      </c>
-      <c r="J51">
-        <v>3.9</v>
-      </c>
       <c r="K51">
-        <v>0.536</v>
+        <v>0.459</v>
       </c>
       <c r="L51">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="M51">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="N51">
+        <v>1.2</v>
+      </c>
+      <c r="O51">
+        <v>1.7</v>
+      </c>
+      <c r="P51">
+        <v>2.9</v>
+      </c>
+      <c r="Q51">
+        <v>0.9</v>
+      </c>
+      <c r="R51">
         <v>0.3</v>
-      </c>
-      <c r="O51">
-        <v>2.2</v>
-      </c>
-      <c r="P51">
-        <v>2.5</v>
-      </c>
-      <c r="Q51">
-        <v>0.8</v>
-      </c>
-      <c r="R51">
-        <v>0.7</v>
       </c>
       <c r="S51">
         <v>0.3</v>
       </c>
       <c r="T51">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="U51">
-        <v>3553917</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B52" t="s">
         <v>70</v>
       </c>
       <c r="C52">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D52">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="E52">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="F52">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4027,105 +4027,105 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="J52">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="K52">
-        <v>0.516</v>
+        <v>0.506</v>
       </c>
       <c r="L52">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="M52">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="N52">
         <v>2.1</v>
       </c>
       <c r="O52">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="R52">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="S52">
         <v>0.5</v>
       </c>
       <c r="T52">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="U52">
-        <v>4050000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s">
         <v>71</v>
       </c>
       <c r="C53">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D53">
-        <v>20.7</v>
+        <v>23.4</v>
       </c>
       <c r="E53">
+        <v>2.5</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>0.6</v>
+      </c>
+      <c r="H53">
+        <v>1.7</v>
+      </c>
+      <c r="I53">
+        <v>1.9</v>
+      </c>
+      <c r="J53">
+        <v>3.3</v>
+      </c>
+      <c r="K53">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="L53">
+        <v>0.8</v>
+      </c>
+      <c r="M53">
+        <v>1.3</v>
+      </c>
+      <c r="N53">
+        <v>0.7</v>
+      </c>
+      <c r="O53">
         <v>3.8</v>
       </c>
-      <c r="F53">
-        <v>7.5</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>3.8</v>
-      </c>
-      <c r="J53">
-        <v>7.5</v>
-      </c>
-      <c r="K53">
-        <v>0.506</v>
-      </c>
-      <c r="L53">
-        <v>1.2</v>
-      </c>
-      <c r="M53">
-        <v>1.7</v>
-      </c>
-      <c r="N53">
-        <v>2.1</v>
-      </c>
-      <c r="O53">
-        <v>4</v>
-      </c>
       <c r="P53">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q53">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="R53">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="S53">
         <v>0.5</v>
       </c>
       <c r="T53">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="U53">
         <v>4000000</v>
@@ -4133,152 +4133,152 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="1">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B54" t="s">
         <v>72</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D54">
-        <v>28.4</v>
+        <v>15.5</v>
       </c>
       <c r="E54">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="F54">
-        <v>12.3</v>
+        <v>6.6</v>
       </c>
       <c r="G54">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H54">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="I54">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="J54">
-        <v>8.9</v>
+        <v>6.4</v>
       </c>
       <c r="K54">
-        <v>0.467</v>
+        <v>0.489</v>
       </c>
       <c r="L54">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="M54">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="N54">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="O54">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="P54">
-        <v>7.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q54">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="R54">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="T54">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="U54">
-        <v>4131720</v>
+        <v>4300000</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
         <v>73</v>
       </c>
       <c r="C55">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D55">
-        <v>26.6</v>
+        <v>22.5</v>
       </c>
       <c r="E55">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F55">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="G55">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H55">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="I55">
+        <v>2.2</v>
+      </c>
+      <c r="J55">
+        <v>4.8</v>
+      </c>
+      <c r="K55">
+        <v>0.462</v>
+      </c>
+      <c r="L55">
+        <v>3.6</v>
+      </c>
+      <c r="M55">
+        <v>4.3</v>
+      </c>
+      <c r="N55">
+        <v>0.4</v>
+      </c>
+      <c r="O55">
+        <v>2.2</v>
+      </c>
+      <c r="P55">
+        <v>2.6</v>
+      </c>
+      <c r="Q55">
+        <v>3.8</v>
+      </c>
+      <c r="R55">
+        <v>1.4</v>
+      </c>
+      <c r="S55">
+        <v>0.2</v>
+      </c>
+      <c r="T55">
         <v>1.8</v>
       </c>
-      <c r="J55">
-        <v>4.2</v>
-      </c>
-      <c r="K55">
-        <v>0.4379999999999999</v>
-      </c>
-      <c r="L55">
-        <v>0.8</v>
-      </c>
-      <c r="M55">
-        <v>0.9</v>
-      </c>
-      <c r="N55">
-        <v>0.5</v>
-      </c>
-      <c r="O55">
-        <v>2.5</v>
-      </c>
-      <c r="P55">
-        <v>2.9</v>
-      </c>
-      <c r="Q55">
-        <v>4.9</v>
-      </c>
-      <c r="R55">
-        <v>0.6</v>
-      </c>
-      <c r="S55">
-        <v>0.1</v>
-      </c>
-      <c r="T55">
-        <v>1.7</v>
-      </c>
       <c r="U55">
-        <v>4345000</v>
+        <v>4300000</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
         <v>74</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4287,63 +4287,63 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>0.5649999999999999</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="P56">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S56">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="T56">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>4660482</v>
+        <v>4662960</v>
       </c>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="1">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
         <v>75</v>
       </c>
       <c r="C57">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -4352,300 +4352,300 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>0.476</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="P57">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="S57">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>4389607</v>
+        <v>4626960</v>
       </c>
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B58" t="s">
         <v>76</v>
       </c>
       <c r="C58">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D58">
-        <v>15.1</v>
+        <v>7</v>
       </c>
       <c r="E58">
+        <v>1.3</v>
+      </c>
+      <c r="F58">
+        <v>2.7</v>
+      </c>
+      <c r="G58">
+        <v>0.1</v>
+      </c>
+      <c r="H58">
+        <v>0.3</v>
+      </c>
+      <c r="I58">
+        <v>1.2</v>
+      </c>
+      <c r="J58">
+        <v>2.4</v>
+      </c>
+      <c r="K58">
+        <v>0.477</v>
+      </c>
+      <c r="L58">
+        <v>0.2</v>
+      </c>
+      <c r="M58">
+        <v>0.2</v>
+      </c>
+      <c r="N58">
+        <v>0.4</v>
+      </c>
+      <c r="O58">
+        <v>1.1</v>
+      </c>
+      <c r="P58">
         <v>1.5</v>
       </c>
-      <c r="F58">
-        <v>3.7</v>
-      </c>
-      <c r="G58">
-        <v>0.6</v>
-      </c>
-      <c r="H58">
-        <v>1.4</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>2.3</v>
-      </c>
-      <c r="K58">
-        <v>0.488</v>
-      </c>
-      <c r="L58">
-        <v>0.8</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>2.7</v>
-      </c>
-      <c r="P58">
-        <v>3.7</v>
-      </c>
       <c r="Q58">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="R58">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S58">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="T58">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="U58">
-        <v>5000000</v>
+        <v>5016000</v>
       </c>
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="1">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
         <v>77</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D59">
-        <v>27.6</v>
+        <v>30</v>
       </c>
       <c r="E59">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="F59">
-        <v>9.1</v>
+        <v>10.5</v>
       </c>
       <c r="G59">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H59">
+        <v>2.9</v>
+      </c>
+      <c r="I59">
+        <v>3.9</v>
+      </c>
+      <c r="J59">
+        <v>7.6</v>
+      </c>
+      <c r="K59">
+        <v>0.542</v>
+      </c>
+      <c r="L59">
+        <v>2.6</v>
+      </c>
+      <c r="M59">
         <v>3.1</v>
       </c>
-      <c r="I59">
-        <v>2.5</v>
-      </c>
-      <c r="J59">
-        <v>6</v>
-      </c>
-      <c r="K59">
-        <v>0.46</v>
-      </c>
-      <c r="L59">
-        <v>1.4</v>
-      </c>
-      <c r="M59">
-        <v>2</v>
-      </c>
       <c r="N59">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O59">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="P59">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q59">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="R59">
         <v>1</v>
       </c>
       <c r="S59">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T59">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="U59">
-        <v>5138430</v>
+        <v>5013559</v>
       </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
         <v>78</v>
       </c>
       <c r="C60">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D60">
-        <v>17.7</v>
+        <v>32.4</v>
       </c>
       <c r="E60">
+        <v>4.9</v>
+      </c>
+      <c r="F60">
+        <v>11.9</v>
+      </c>
+      <c r="G60">
+        <v>1.5</v>
+      </c>
+      <c r="H60">
+        <v>4.3</v>
+      </c>
+      <c r="I60">
+        <v>3.4</v>
+      </c>
+      <c r="J60">
+        <v>7.6</v>
+      </c>
+      <c r="K60">
+        <v>0.477</v>
+      </c>
+      <c r="L60">
+        <v>2.8</v>
+      </c>
+      <c r="M60">
+        <v>3.2</v>
+      </c>
+      <c r="N60">
+        <v>0.3</v>
+      </c>
+      <c r="O60">
+        <v>2.6</v>
+      </c>
+      <c r="P60">
         <v>2.9</v>
       </c>
-      <c r="F60">
-        <v>4.3</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>2.9</v>
-      </c>
-      <c r="J60">
-        <v>4.3</v>
-      </c>
-      <c r="K60">
-        <v>0.6729999999999999</v>
-      </c>
-      <c r="L60">
-        <v>1.1</v>
-      </c>
-      <c r="M60">
-        <v>2</v>
-      </c>
-      <c r="N60">
-        <v>1.2</v>
-      </c>
-      <c r="O60">
-        <v>2.4</v>
-      </c>
-      <c r="P60">
-        <v>3.6</v>
-      </c>
       <c r="Q60">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="R60">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="S60">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="T60">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="U60">
-        <v>5464000</v>
+        <v>5378974</v>
       </c>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
         <v>79</v>
       </c>
       <c r="C61">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D61">
-        <v>14.2</v>
+        <v>19.5</v>
       </c>
       <c r="E61">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="F61">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="G61">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H61">
+        <v>0.2</v>
+      </c>
+      <c r="I61">
+        <v>2.6</v>
+      </c>
+      <c r="J61">
+        <v>4.7</v>
+      </c>
+      <c r="K61">
+        <v>0.5379999999999999</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
         <v>1.2</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>2.4</v>
-      </c>
-      <c r="K61">
-        <v>0.412</v>
-      </c>
-      <c r="L61">
-        <v>0.7</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
       </c>
       <c r="N61">
         <v>0.5</v>
       </c>
       <c r="O61">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="P61">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q61">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="R61">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="S61">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T61">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="U61">
         <v>5543725</v>
@@ -4653,197 +4653,197 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="1">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
         <v>80</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>35.1</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>0.481</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="U62">
-        <v>5613500</v>
+        <v>5758680</v>
       </c>
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="1">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
         <v>81</v>
       </c>
       <c r="C63">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D63">
-        <v>19.9</v>
+        <v>26.9</v>
       </c>
       <c r="E63">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="F63">
-        <v>7.3</v>
+        <v>11.9</v>
       </c>
       <c r="G63">
+        <v>1.5</v>
+      </c>
+      <c r="H63">
+        <v>4.4</v>
+      </c>
+      <c r="I63">
+        <v>3.3</v>
+      </c>
+      <c r="J63">
+        <v>7.5</v>
+      </c>
+      <c r="K63">
+        <v>0.466</v>
+      </c>
+      <c r="L63">
+        <v>3.1</v>
+      </c>
+      <c r="M63">
+        <v>3.4</v>
+      </c>
+      <c r="N63">
+        <v>0.3</v>
+      </c>
+      <c r="O63">
+        <v>1.6</v>
+      </c>
+      <c r="P63">
+        <v>1.8</v>
+      </c>
+      <c r="Q63">
+        <v>2.3</v>
+      </c>
+      <c r="R63">
         <v>0.7</v>
       </c>
-      <c r="H63">
-        <v>1.9</v>
-      </c>
-      <c r="I63">
-        <v>2.6</v>
-      </c>
-      <c r="J63">
-        <v>5.5</v>
-      </c>
-      <c r="K63">
-        <v>0.484</v>
-      </c>
-      <c r="L63">
-        <v>1.6</v>
-      </c>
-      <c r="M63">
-        <v>2</v>
-      </c>
-      <c r="N63">
-        <v>0.4</v>
-      </c>
-      <c r="O63">
-        <v>2.5</v>
-      </c>
-      <c r="P63">
-        <v>2.9</v>
-      </c>
-      <c r="Q63">
-        <v>1</v>
-      </c>
-      <c r="R63">
-        <v>0.5</v>
-      </c>
       <c r="S63">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="T63">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="U63">
-        <v>6000000</v>
+        <v>5675000</v>
       </c>
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="1">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
         <v>82</v>
       </c>
       <c r="C64">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D64">
-        <v>15.8</v>
+        <v>25.6</v>
       </c>
       <c r="E64">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="F64">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="G64">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H64">
+        <v>3.7</v>
+      </c>
+      <c r="I64">
+        <v>1.2</v>
+      </c>
+      <c r="J64">
+        <v>2.5</v>
+      </c>
+      <c r="K64">
+        <v>0.521</v>
+      </c>
+      <c r="L64">
         <v>0.4</v>
       </c>
-      <c r="I64">
-        <v>3.7</v>
-      </c>
-      <c r="J64">
-        <v>6.6</v>
-      </c>
-      <c r="K64">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="L64">
-        <v>1.9</v>
-      </c>
       <c r="M64">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="N64">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="Q64">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="R64">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="S64">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="T64">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="U64">
-        <v>6500000</v>
+        <v>6268675</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4913,72 +4913,72 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
         <v>84</v>
       </c>
       <c r="C66">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D66">
-        <v>22</v>
+        <v>20.8</v>
       </c>
       <c r="E66">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="F66">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="G66">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>2.5</v>
+      </c>
+      <c r="J66">
+        <v>4.2</v>
+      </c>
+      <c r="K66">
+        <v>0.611</v>
+      </c>
+      <c r="L66">
         <v>1.4</v>
       </c>
-      <c r="I66">
+      <c r="M66">
+        <v>2.5</v>
+      </c>
+      <c r="N66">
         <v>2.8</v>
       </c>
-      <c r="J66">
-        <v>6.2</v>
-      </c>
-      <c r="K66">
-        <v>0.436</v>
-      </c>
-      <c r="L66">
-        <v>2.3</v>
-      </c>
-      <c r="M66">
-        <v>2.7</v>
-      </c>
-      <c r="N66">
-        <v>0.3</v>
-      </c>
       <c r="O66">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="P66">
-        <v>2.7</v>
+        <v>7.4</v>
       </c>
       <c r="Q66">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="R66">
         <v>0.7</v>
       </c>
       <c r="S66">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="T66">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="U66">
-        <v>7000000</v>
+        <v>6980802</v>
       </c>
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s">
         <v>85</v>
@@ -4987,55 +4987,55 @@
         <v>29</v>
       </c>
       <c r="D67">
-        <v>28.9</v>
+        <v>22</v>
       </c>
       <c r="E67">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="F67">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="G67">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H67">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="I67">
+        <v>2.8</v>
+      </c>
+      <c r="J67">
+        <v>6.2</v>
+      </c>
+      <c r="K67">
+        <v>0.436</v>
+      </c>
+      <c r="L67">
         <v>2.3</v>
       </c>
-      <c r="J67">
-        <v>4.6</v>
-      </c>
-      <c r="K67">
-        <v>0.5539999999999999</v>
-      </c>
-      <c r="L67">
-        <v>1.5</v>
-      </c>
       <c r="M67">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N67">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="O67">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="P67">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q67">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="R67">
         <v>0.7</v>
       </c>
       <c r="S67">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T67">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="U67">
         <v>7000000</v>
@@ -5043,152 +5043,152 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="1">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
         <v>86</v>
       </c>
       <c r="C68">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D68">
-        <v>25.5</v>
+        <v>35.3</v>
       </c>
       <c r="E68">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="F68">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="G68">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H68">
-        <v>2.4</v>
+        <v>6.2</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="J68">
-        <v>8.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="K68">
-        <v>0.458</v>
+        <v>0.523</v>
       </c>
       <c r="L68">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>0.8</v>
+      </c>
+      <c r="O68">
+        <v>3.7</v>
+      </c>
+      <c r="P68">
+        <v>4.5</v>
+      </c>
+      <c r="Q68">
         <v>2.3</v>
       </c>
-      <c r="N68">
-        <v>1.1</v>
-      </c>
-      <c r="O68">
-        <v>4.4</v>
-      </c>
-      <c r="P68">
-        <v>5.5</v>
-      </c>
-      <c r="Q68">
-        <v>1.9</v>
-      </c>
       <c r="R68">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T68">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="U68">
-        <v>8000000</v>
+        <v>8193030</v>
       </c>
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
         <v>87</v>
       </c>
       <c r="C69">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D69">
-        <v>35.3</v>
+        <v>28.5</v>
       </c>
       <c r="E69">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="F69">
-        <v>10.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G69">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H69">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="I69">
         <v>2.1</v>
       </c>
       <c r="J69">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K69">
-        <v>0.523</v>
+        <v>0.503</v>
       </c>
       <c r="L69">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="N69">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="O69">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="P69">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="Q69">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="S69">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="T69">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U69">
-        <v>8193030</v>
+        <v>8042895</v>
       </c>
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="1">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
         <v>88</v>
       </c>
       <c r="C70">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D70">
-        <v>17.3</v>
+        <v>14.6</v>
       </c>
       <c r="E70">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F70">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -5197,173 +5197,173 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J70">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K70">
-        <v>0.5329999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="L70">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="M70">
+        <v>0.6</v>
+      </c>
+      <c r="N70">
+        <v>0.4</v>
+      </c>
+      <c r="O70">
+        <v>3.6</v>
+      </c>
+      <c r="P70">
+        <v>3.9</v>
+      </c>
+      <c r="Q70">
         <v>1.6</v>
       </c>
-      <c r="N70">
-        <v>1.8</v>
-      </c>
-      <c r="O70">
-        <v>4.3</v>
-      </c>
-      <c r="P70">
-        <v>6.1</v>
-      </c>
-      <c r="Q70">
-        <v>0.4</v>
-      </c>
       <c r="R70">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="S70">
         <v>0.3</v>
       </c>
       <c r="T70">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="U70">
-        <v>9213483</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="1">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
         <v>89</v>
       </c>
       <c r="C71">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D71">
-        <v>35.2</v>
+        <v>31.5</v>
       </c>
       <c r="E71">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="F71">
-        <v>10.9</v>
+        <v>14.8</v>
       </c>
       <c r="G71">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H71">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="I71">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="J71">
-        <v>8.5</v>
+        <v>10.3</v>
       </c>
       <c r="K71">
-        <v>0.494</v>
+        <v>0.504</v>
       </c>
       <c r="L71">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="M71">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="N71">
+        <v>0.7</v>
+      </c>
+      <c r="O71">
+        <v>5.8</v>
+      </c>
+      <c r="P71">
+        <v>6.5</v>
+      </c>
+      <c r="Q71">
+        <v>1.8</v>
+      </c>
+      <c r="R71">
+        <v>0.7</v>
+      </c>
+      <c r="S71">
+        <v>0.7</v>
+      </c>
+      <c r="T71">
         <v>1.1</v>
       </c>
-      <c r="O71">
-        <v>5</v>
-      </c>
-      <c r="P71">
-        <v>6</v>
-      </c>
-      <c r="Q71">
-        <v>11.7</v>
-      </c>
-      <c r="R71">
-        <v>2</v>
-      </c>
-      <c r="S71">
-        <v>0.1</v>
-      </c>
-      <c r="T71">
-        <v>3.9</v>
-      </c>
       <c r="U71">
-        <v>9500000</v>
+        <v>8333334</v>
       </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="1">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s">
         <v>90</v>
       </c>
       <c r="C72">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>16.1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>0.523</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="P72">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="S72">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T72">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="U72">
-        <v>9756250</v>
+        <v>10449438</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -5433,129 +5433,129 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
         <v>92</v>
       </c>
       <c r="C74">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D74">
-        <v>35.6</v>
+        <v>26.6</v>
       </c>
       <c r="E74">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="F74">
-        <v>16.4</v>
+        <v>5.7</v>
       </c>
       <c r="G74">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H74">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="I74">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="J74">
-        <v>10.4</v>
+        <v>3.3</v>
       </c>
       <c r="K74">
-        <v>0.495</v>
+        <v>0.552</v>
       </c>
       <c r="L74">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="M74">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="N74">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="O74">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="P74">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="R74">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="S74">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T74">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="U74">
-        <v>12000000</v>
+        <v>11710456</v>
       </c>
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s">
         <v>93</v>
       </c>
       <c r="C75">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D75">
-        <v>22.8</v>
+        <v>35.6</v>
       </c>
       <c r="E75">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="F75">
+        <v>16.4</v>
+      </c>
+      <c r="G75">
+        <v>2.2</v>
+      </c>
+      <c r="H75">
+        <v>6</v>
+      </c>
+      <c r="I75">
+        <v>4.8</v>
+      </c>
+      <c r="J75">
+        <v>10.4</v>
+      </c>
+      <c r="K75">
+        <v>0.495</v>
+      </c>
+      <c r="L75">
+        <v>4.6</v>
+      </c>
+      <c r="M75">
         <v>5.4</v>
       </c>
-      <c r="G75">
-        <v>0.1</v>
-      </c>
-      <c r="H75">
+      <c r="N75">
+        <v>0.7</v>
+      </c>
+      <c r="O75">
+        <v>3.7</v>
+      </c>
+      <c r="P75">
+        <v>4.4</v>
+      </c>
+      <c r="Q75">
+        <v>5.2</v>
+      </c>
+      <c r="R75">
+        <v>1.6</v>
+      </c>
+      <c r="S75">
         <v>0.5</v>
       </c>
-      <c r="I75">
-        <v>3</v>
-      </c>
-      <c r="J75">
-        <v>4.8</v>
-      </c>
-      <c r="K75">
-        <v>0.596</v>
-      </c>
-      <c r="L75">
-        <v>0.9</v>
-      </c>
-      <c r="M75">
-        <v>1.5</v>
-      </c>
-      <c r="N75">
-        <v>2.3</v>
-      </c>
-      <c r="O75">
-        <v>4.1</v>
-      </c>
-      <c r="P75">
-        <v>6.4</v>
-      </c>
-      <c r="Q75">
-        <v>1.7</v>
-      </c>
-      <c r="R75">
-        <v>0.7</v>
-      </c>
-      <c r="S75">
-        <v>1.1</v>
-      </c>
       <c r="T75">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="U75">
         <v>12000000</v>
@@ -5628,129 +5628,129 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="1">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
         <v>95</v>
       </c>
       <c r="C77">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D77">
-        <v>32.1</v>
+        <v>19.2</v>
       </c>
       <c r="E77">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="F77">
-        <v>11.1</v>
+        <v>6.7</v>
       </c>
       <c r="G77">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="I77">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="J77">
-        <v>8.800000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="K77">
-        <v>0.513</v>
+        <v>0.544</v>
       </c>
       <c r="L77">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="M77">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="N77">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q77">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="R77">
+        <v>0.9</v>
+      </c>
+      <c r="S77">
         <v>0.5</v>
       </c>
-      <c r="S77">
-        <v>1.9</v>
-      </c>
       <c r="T77">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U77">
-        <v>12250000</v>
+        <v>13000000</v>
       </c>
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s">
         <v>96</v>
       </c>
       <c r="C78">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>36</v>
+        <v>34.2</v>
       </c>
       <c r="E78">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="F78">
-        <v>17.2</v>
+        <v>15.9</v>
       </c>
       <c r="G78">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H78">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="I78">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="J78">
-        <v>10.5</v>
+        <v>11.7</v>
       </c>
       <c r="K78">
-        <v>0.482</v>
+        <v>0.502</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M78">
+        <v>5.5</v>
+      </c>
+      <c r="N78">
+        <v>0.6</v>
+      </c>
+      <c r="O78">
         <v>3.5</v>
       </c>
-      <c r="N78">
-        <v>0.7</v>
-      </c>
-      <c r="O78">
-        <v>3.2</v>
-      </c>
       <c r="P78">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Q78">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="R78">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="T78">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U78">
         <v>13500000</v>
@@ -5758,262 +5758,262 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="1">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
         <v>97</v>
       </c>
       <c r="C79">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D79">
-        <v>34.2</v>
+        <v>36.1</v>
       </c>
       <c r="E79">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="F79">
-        <v>15.9</v>
+        <v>14.5</v>
       </c>
       <c r="G79">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H79">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I79">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="J79">
-        <v>11.7</v>
+        <v>9.9</v>
       </c>
       <c r="K79">
-        <v>0.502</v>
+        <v>0.507</v>
       </c>
       <c r="L79">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="N79">
         <v>0.6</v>
       </c>
       <c r="O79">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P79">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q79">
-        <v>6.1</v>
+        <v>4.2</v>
       </c>
       <c r="R79">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S79">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="T79">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="U79">
-        <v>13500000</v>
+        <v>14700000</v>
       </c>
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B80" t="s">
         <v>98</v>
       </c>
       <c r="C80">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D80">
-        <v>36.2</v>
+        <v>23.2</v>
       </c>
       <c r="E80">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="F80">
-        <v>15</v>
+        <v>5.1</v>
       </c>
       <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>2.2</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+      <c r="K80">
+        <v>0.4429999999999999</v>
+      </c>
+      <c r="L80">
+        <v>1.4</v>
+      </c>
+      <c r="M80">
         <v>1.8</v>
       </c>
-      <c r="H80">
-        <v>5.1</v>
-      </c>
-      <c r="I80">
-        <v>4.7</v>
-      </c>
-      <c r="J80">
-        <v>9.9</v>
-      </c>
-      <c r="K80">
-        <v>0.493</v>
-      </c>
-      <c r="L80">
+      <c r="N80">
+        <v>1.6</v>
+      </c>
+      <c r="O80">
+        <v>3.3</v>
+      </c>
+      <c r="P80">
         <v>4.9</v>
       </c>
-      <c r="M80">
-        <v>6</v>
-      </c>
-      <c r="N80">
-        <v>0.8</v>
-      </c>
-      <c r="O80">
-        <v>4.2</v>
-      </c>
-      <c r="P80">
-        <v>5</v>
-      </c>
       <c r="Q80">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="R80">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="S80">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="U80">
-        <v>15409570</v>
+        <v>15592217</v>
       </c>
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B81" t="s">
         <v>99</v>
       </c>
       <c r="C81">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D81">
-        <v>33.3</v>
+        <v>32.8</v>
       </c>
       <c r="E81">
-        <v>8.1</v>
+        <v>5.8</v>
       </c>
       <c r="F81">
-        <v>17.3</v>
+        <v>12.2</v>
       </c>
       <c r="G81">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H81">
-        <v>8.1</v>
+        <v>2.8</v>
       </c>
       <c r="I81">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J81">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K81">
-        <v>0.569</v>
+        <v>0.513</v>
       </c>
       <c r="L81">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="M81">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N81">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P81">
         <v>3.8</v>
       </c>
       <c r="Q81">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="R81">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S81">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="T81">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="U81">
-        <v>15501000</v>
+        <v>14783000</v>
       </c>
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
         <v>100</v>
       </c>
       <c r="C82">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D82">
-        <v>34.4</v>
+        <v>30.6</v>
       </c>
       <c r="E82">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="F82">
-        <v>18.1</v>
+        <v>14.1</v>
       </c>
       <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0.2</v>
+      </c>
+      <c r="I82">
+        <v>7.2</v>
+      </c>
+      <c r="J82">
+        <v>13.9</v>
+      </c>
+      <c r="K82">
+        <v>0.513</v>
+      </c>
+      <c r="L82">
+        <v>3.5</v>
+      </c>
+      <c r="M82">
+        <v>4.1</v>
+      </c>
+      <c r="N82">
+        <v>2.4</v>
+      </c>
+      <c r="O82">
+        <v>6.2</v>
+      </c>
+      <c r="P82">
+        <v>8.5</v>
+      </c>
+      <c r="Q82">
+        <v>1.5</v>
+      </c>
+      <c r="R82">
+        <v>0.5</v>
+      </c>
+      <c r="S82">
+        <v>1.1</v>
+      </c>
+      <c r="T82">
         <v>1.3</v>
       </c>
-      <c r="H82">
-        <v>4.3</v>
-      </c>
-      <c r="I82">
-        <v>6.9</v>
-      </c>
-      <c r="J82">
-        <v>13.8</v>
-      </c>
-      <c r="K82">
-        <v>0.489</v>
-      </c>
-      <c r="L82">
-        <v>5.8</v>
-      </c>
-      <c r="M82">
-        <v>7.2</v>
-      </c>
-      <c r="N82">
-        <v>1.8</v>
-      </c>
-      <c r="O82">
-        <v>6</v>
-      </c>
-      <c r="P82">
-        <v>7.8</v>
-      </c>
-      <c r="Q82">
-        <v>10.4</v>
-      </c>
-      <c r="R82">
-        <v>2</v>
-      </c>
-      <c r="S82">
-        <v>0.3</v>
-      </c>
-      <c r="T82">
-        <v>4.3</v>
-      </c>
       <c r="U82">
-        <v>16744218</v>
+        <v>19689000</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -6083,132 +6083,132 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B84" t="s">
         <v>102</v>
       </c>
       <c r="C84">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D84">
-        <v>35.8</v>
+        <v>35.1</v>
       </c>
       <c r="E84">
-        <v>9.699999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="F84">
-        <v>19.2</v>
+        <v>18.2</v>
       </c>
       <c r="G84">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H84">
-        <v>6.7</v>
+        <v>4.3</v>
       </c>
       <c r="I84">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="J84">
-        <v>12.5</v>
+        <v>13.8</v>
       </c>
       <c r="K84">
-        <v>0.573</v>
+        <v>0.474</v>
       </c>
       <c r="L84">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="M84">
-        <v>6.9</v>
+        <v>5.6</v>
       </c>
       <c r="N84">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="O84">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="P84">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="Q84">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="R84">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S84">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="T84">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="U84">
-        <v>20158622</v>
+        <v>22875000</v>
       </c>
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B85" t="s">
         <v>103</v>
       </c>
       <c r="C85">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D85">
-        <v>31.8</v>
+        <v>35.6</v>
       </c>
       <c r="E85">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F85">
+        <v>18.6</v>
+      </c>
+      <c r="G85">
+        <v>1.1</v>
+      </c>
+      <c r="H85">
+        <v>3.7</v>
+      </c>
+      <c r="I85">
+        <v>8.6</v>
+      </c>
+      <c r="J85">
+        <v>14.9</v>
+      </c>
+      <c r="K85">
+        <v>0.551</v>
+      </c>
+      <c r="L85">
+        <v>4.7</v>
+      </c>
+      <c r="M85">
+        <v>6.5</v>
+      </c>
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+      <c r="O85">
+        <v>6</v>
+      </c>
+      <c r="P85">
+        <v>7.4</v>
+      </c>
+      <c r="Q85">
         <v>6.8</v>
       </c>
-      <c r="F85">
-        <v>15.9</v>
-      </c>
-      <c r="G85">
-        <v>0.7</v>
-      </c>
-      <c r="H85">
-        <v>2.3</v>
-      </c>
-      <c r="I85">
-        <v>6.1</v>
-      </c>
-      <c r="J85">
-        <v>13.6</v>
-      </c>
-      <c r="K85">
-        <v>0.448</v>
-      </c>
-      <c r="L85">
-        <v>2.2</v>
-      </c>
-      <c r="M85">
-        <v>2.7</v>
-      </c>
-      <c r="N85">
-        <v>0.7</v>
-      </c>
-      <c r="O85">
-        <v>2.7</v>
-      </c>
-      <c r="P85">
-        <v>3.4</v>
-      </c>
-      <c r="Q85">
-        <v>4.7</v>
-      </c>
       <c r="R85">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="S85">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="T85">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="U85">
-        <v>20093064</v>
+        <v>22970500</v>
       </c>
     </row>
   </sheetData>
